--- a/LCNR - CANTILEVER/Cantilever/kfold/kfold_4_manhattan/output_kfold4_4_mh.xlsx
+++ b/LCNR - CANTILEVER/Cantilever/kfold/kfold_4_manhattan/output_kfold4_4_mh.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduard.hogea/Documents/Facultate/Internship/explorare/KNN99---LTN/LCNR_LCNC/LCNR - CANTILEVER/Cantilever/articol/kfold_4_manhattan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduard.hogea/Documents/Facultate/Internship/explorare/KNN99---LTN/LCNR_LCNC/LCNC-LCNR/LCNR - CANTILEVER/Cantilever/kfold/kfold_4_manhattan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B637EA-FF3F-434A-BBCE-D3A89FF9FF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274162D8-1068-A241-B744-446D924E9483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,28 +29,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,10 +436,14 @@
   <dimension ref="A1:N91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="6.1640625" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -506,17 +488,17 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B2">
-        <v>0.12040480226278311</v>
+        <v>0.49517691135406489</v>
       </c>
       <c r="C2">
-        <v>0.12</v>
-      </c>
-      <c r="D2" cm="1">
-        <f t="array" ref="D2:D91">ABS(B2:B91 - C2:C91)</f>
-        <v>4.0480226278311049E-4</v>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="D2">
+        <f>ABS(B2 - C2)</f>
+        <v>2.9176911354064861E-2</v>
       </c>
       <c r="E2">
         <v>3.3459710000000001E-3</v>
@@ -525,174 +507,178 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G2">
-        <v>3.1686079999999998E-3</v>
+        <v>1.467105E-3</v>
       </c>
       <c r="H2">
-        <v>1.6116290000000001E-3</v>
+        <v>2.4349089999999999E-3</v>
       </c>
       <c r="I2">
-        <v>1.081879E-3</v>
+        <v>1.128488E-3</v>
       </c>
       <c r="J2">
-        <v>1.1862520000000001E-3</v>
+        <v>2.318868E-3</v>
       </c>
       <c r="K2">
-        <v>1.706452E-3</v>
+        <v>1.3813899999999999E-3</v>
       </c>
       <c r="L2">
-        <v>2.175434E-3</v>
+        <v>2.0597969999999999E-3</v>
       </c>
       <c r="M2">
-        <v>2.3519790000000001E-3</v>
+        <v>1.655E-3</v>
       </c>
       <c r="N2">
-        <v>2.1408019999999998E-3</v>
+        <v>1.770226E-3</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B3">
-        <v>0.65477609634399414</v>
+        <v>0.37553888559341431</v>
       </c>
       <c r="C3">
-        <v>0.66</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D3">
-        <v>5.2239036560058905E-3</v>
+        <f>ABS(B3 - C3)</f>
+        <v>2.8538885593414332E-2</v>
       </c>
       <c r="E3">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G3">
-        <v>8.2470099999999995E-5</v>
+        <v>1.9112510000000001E-3</v>
       </c>
       <c r="H3">
-        <v>1.08073E-3</v>
+        <v>1.6810390000000001E-3</v>
       </c>
       <c r="I3">
-        <v>1.5107530000000001E-3</v>
+        <v>2.2190439999999999E-3</v>
       </c>
       <c r="J3">
-        <v>4.9378400000000001E-5</v>
+        <v>1.064686E-3</v>
       </c>
       <c r="K3">
-        <v>8.9862700000000004E-4</v>
+        <v>2.11188E-3</v>
       </c>
       <c r="L3">
-        <v>1.2728990000000001E-3</v>
+        <v>2.1935290000000001E-3</v>
       </c>
       <c r="M3">
-        <v>1.7238600000000001E-5</v>
+        <v>1.0721629999999999E-3</v>
       </c>
       <c r="N3">
-        <v>1.0025940000000001E-3</v>
+        <v>2.242384E-3</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B4">
-        <v>0.34524250030517578</v>
+        <v>0.59101951122283936</v>
       </c>
       <c r="C4">
-        <v>0.32500000000000001</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="D4">
-        <v>2.024250030517577E-2</v>
+        <f>ABS(B4 - C4)</f>
+        <v>2.8019511222839411E-2</v>
       </c>
       <c r="E4">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F4">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G4">
-        <v>1.9903410000000001E-3</v>
+        <v>1.7899929999999999E-3</v>
       </c>
       <c r="H4">
-        <v>1.507539E-3</v>
+        <v>3.0682000000000001E-3</v>
       </c>
       <c r="I4">
-        <v>2.3218290000000001E-3</v>
+        <v>1.9587599999999999E-3</v>
       </c>
       <c r="J4">
-        <v>1.217103E-3</v>
+        <v>2.4381730000000001E-3</v>
       </c>
       <c r="K4">
-        <v>1.6443670000000001E-3</v>
+        <v>2.4691549999999998E-3</v>
       </c>
       <c r="L4">
-        <v>2.518808E-3</v>
+        <v>1.8905180000000001E-3</v>
       </c>
       <c r="M4">
-        <v>1.331622E-3</v>
+        <v>2.9148669999999998E-3</v>
       </c>
       <c r="N4">
-        <v>1.5189820000000001E-3</v>
+        <v>1.592869E-3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B5">
-        <v>0.2599952220916748</v>
+        <v>0.58724796772003174</v>
       </c>
       <c r="C5">
-        <v>0.255</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D5">
-        <v>4.9952220916748002E-3</v>
+        <f>ABS(B5 - C5)</f>
+        <v>2.7247967720031685E-2</v>
       </c>
       <c r="E5">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F5">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G5">
-        <v>2.3155680000000001E-3</v>
+        <v>1.794316E-3</v>
       </c>
       <c r="H5">
-        <v>1.109358E-3</v>
+        <v>3.083611E-3</v>
       </c>
       <c r="I5">
-        <v>2.086517E-3</v>
+        <v>1.9338389999999999E-3</v>
       </c>
       <c r="J5">
-        <v>2.135082E-3</v>
+        <v>2.4929510000000002E-3</v>
       </c>
       <c r="K5">
-        <v>1.2071180000000001E-3</v>
+        <v>2.4239840000000001E-3</v>
       </c>
       <c r="L5">
-        <v>1.3703179999999999E-3</v>
+        <v>1.9660060000000002E-3</v>
       </c>
       <c r="M5">
-        <v>2.4096019999999998E-3</v>
+        <v>2.8892409999999999E-3</v>
       </c>
       <c r="N5">
-        <v>2.1918739999999999E-3</v>
+        <v>1.6305709999999999E-3</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B6">
-        <v>0.89572721719741821</v>
+        <v>0.61626732349395752</v>
       </c>
       <c r="C6">
-        <v>0.90600000000000003</v>
+        <v>0.59</v>
       </c>
       <c r="D6">
-        <v>1.0272782802581815E-2</v>
+        <f>ABS(B6 - C6)</f>
+        <v>2.6267323493957551E-2</v>
       </c>
       <c r="E6">
         <v>3.3459710000000001E-3</v>
@@ -701,42 +687,43 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G6">
-        <v>1.049052E-3</v>
+        <v>1.1781649999999999E-3</v>
       </c>
       <c r="H6">
-        <v>1.0664660000000001E-3</v>
+        <v>2.4449290000000002E-3</v>
       </c>
       <c r="I6">
-        <v>1.1923509999999999E-3</v>
+        <v>1.732354E-3</v>
       </c>
       <c r="J6">
-        <v>1.4231409999999999E-3</v>
+        <v>1.478207E-3</v>
       </c>
       <c r="K6">
-        <v>1.821254E-3</v>
+        <v>2.4151239999999998E-3</v>
       </c>
       <c r="L6">
-        <v>2.2269400000000002E-3</v>
+        <v>1.0528790000000001E-3</v>
       </c>
       <c r="M6">
-        <v>2.5820109999999999E-3</v>
+        <v>2.447252E-3</v>
       </c>
       <c r="N6">
-        <v>2.7635070000000001E-3</v>
+        <v>1.470903E-3</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.46212899684906011</v>
+        <v>0.43653321266174322</v>
       </c>
       <c r="C7">
-        <v>0.46600000000000003</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D7">
-        <v>3.8710031509399112E-3</v>
+        <f>ABS(B7 - C7)</f>
+        <v>2.253321266174324E-2</v>
       </c>
       <c r="E7">
         <v>3.3459710000000001E-3</v>
@@ -745,42 +732,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G7">
-        <v>2.0117939999999999E-3</v>
+        <v>2.1687759999999999E-3</v>
       </c>
       <c r="H7">
-        <v>2.979055E-3</v>
+        <v>2.6988429999999998E-3</v>
       </c>
       <c r="I7">
-        <v>1.669944E-3</v>
+        <v>2.1093890000000001E-3</v>
       </c>
       <c r="J7">
-        <v>2.8619930000000002E-3</v>
+        <v>2.0904970000000002E-3</v>
       </c>
       <c r="K7">
-        <v>1.9190399999999999E-3</v>
+        <v>2.913639E-3</v>
       </c>
       <c r="L7">
-        <v>2.6019620000000002E-3</v>
+        <v>1.588664E-3</v>
       </c>
       <c r="M7">
-        <v>2.1880390000000001E-3</v>
+        <v>3.014929E-3</v>
       </c>
       <c r="N7">
-        <v>2.3108339999999999E-3</v>
+        <v>1.881499E-3</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="B8">
-        <v>0.43653321266174322</v>
+        <v>0.95971131324768066</v>
       </c>
       <c r="C8">
-        <v>0.41399999999999998</v>
+        <v>0.98</v>
       </c>
       <c r="D8">
-        <v>2.253321266174324E-2</v>
+        <f>ABS(B8 - C8)</f>
+        <v>2.0288686752319318E-2</v>
       </c>
       <c r="E8">
         <v>3.3459710000000001E-3</v>
@@ -789,350 +777,358 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G8">
-        <v>2.1687759999999999E-3</v>
+        <v>1.5618870000000001E-3</v>
       </c>
       <c r="H8">
-        <v>2.6988429999999998E-3</v>
+        <v>1.556059E-3</v>
       </c>
       <c r="I8">
-        <v>2.1093890000000001E-3</v>
+        <v>1.5746379999999999E-3</v>
       </c>
       <c r="J8">
-        <v>2.0904970000000002E-3</v>
+        <v>1.562538E-3</v>
       </c>
       <c r="K8">
-        <v>2.913639E-3</v>
+        <v>1.590244E-3</v>
       </c>
       <c r="L8">
-        <v>1.588664E-3</v>
+        <v>1.576938E-3</v>
       </c>
       <c r="M8">
-        <v>3.014929E-3</v>
+        <v>1.5859839999999999E-3</v>
       </c>
       <c r="N8">
-        <v>1.881499E-3</v>
+        <v>1.610939E-3</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>0.37690907716751099</v>
+        <v>0.34524250030517578</v>
       </c>
       <c r="C9">
-        <v>0.36</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D9">
-        <v>1.6909077167511E-2</v>
+        <f>ABS(B9 - C9)</f>
+        <v>2.024250030517577E-2</v>
       </c>
       <c r="E9">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F9">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G9">
-        <v>2.3616650000000002E-3</v>
+        <v>1.9903410000000001E-3</v>
       </c>
       <c r="H9">
-        <v>2.2930289999999998E-3</v>
+        <v>1.507539E-3</v>
       </c>
       <c r="I9">
-        <v>2.6382279999999998E-3</v>
+        <v>2.3218290000000001E-3</v>
       </c>
       <c r="J9">
-        <v>1.574893E-3</v>
+        <v>1.217103E-3</v>
       </c>
       <c r="K9">
-        <v>2.8472739999999999E-3</v>
+        <v>1.6443670000000001E-3</v>
       </c>
       <c r="L9">
-        <v>2.411519E-3</v>
+        <v>2.518808E-3</v>
       </c>
       <c r="M9">
-        <v>1.693045E-3</v>
+        <v>1.331622E-3</v>
       </c>
       <c r="N9">
-        <v>3.026936E-3</v>
+        <v>1.5189820000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="B10">
-        <v>5.3413316607475281E-2</v>
+        <v>0.79055887460708618</v>
       </c>
       <c r="C10">
-        <v>5.6000000000000001E-2</v>
+        <v>0.81</v>
       </c>
       <c r="D10">
-        <v>2.5866833925247204E-3</v>
+        <f>ABS(B10 - C10)</f>
+        <v>1.9441125392913872E-2</v>
       </c>
       <c r="E10">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G10">
-        <v>2.5521760000000002E-3</v>
+        <v>1.0481679999999999E-3</v>
       </c>
       <c r="H10">
-        <v>1.6138350000000001E-3</v>
+        <v>1.2696890000000001E-3</v>
       </c>
       <c r="I10">
-        <v>9.7601999999999997E-4</v>
+        <v>2.0332390000000001E-3</v>
       </c>
       <c r="J10">
-        <v>4.6964400000000002E-4</v>
+        <v>2.6844239999999999E-3</v>
       </c>
       <c r="K10">
-        <v>1.7945099999999999E-4</v>
+        <v>2.5233959999999998E-3</v>
       </c>
       <c r="L10">
-        <v>1.15464E-5</v>
+        <v>1.624833E-3</v>
       </c>
       <c r="M10">
-        <v>9.9827899999999997E-6</v>
+        <v>1.0580870000000001E-3</v>
       </c>
       <c r="N10">
-        <v>1.4078800000000001E-4</v>
+        <v>1.464782E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B11">
-        <v>0.75351065397262573</v>
+        <v>0.87768727540969849</v>
       </c>
       <c r="C11">
-        <v>0.76</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D11">
-        <v>6.4893460273742765E-3</v>
+        <f>ABS(B11 - C11)</f>
+        <v>1.8312724590301532E-2</v>
       </c>
       <c r="E11">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F11">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G11">
-        <v>1.06825E-3</v>
+        <v>1.565421E-3</v>
       </c>
       <c r="H11">
-        <v>1.525761E-3</v>
+        <v>1.594736E-3</v>
       </c>
       <c r="I11">
-        <v>2.5597710000000002E-3</v>
+        <v>1.763674E-3</v>
       </c>
       <c r="J11">
-        <v>2.5776330000000002E-3</v>
+        <v>2.071828E-3</v>
       </c>
       <c r="K11">
-        <v>1.4979430000000001E-3</v>
+        <v>2.5479980000000001E-3</v>
       </c>
       <c r="L11">
-        <v>1.1189640000000001E-3</v>
+        <v>2.9751600000000001E-3</v>
       </c>
       <c r="M11">
-        <v>2.0728909999999999E-3</v>
+        <v>3.2495990000000002E-3</v>
       </c>
       <c r="N11">
-        <v>2.523707E-3</v>
+        <v>3.2482819999999999E-3</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="B12">
-        <v>0.36009043455123901</v>
+        <v>0.54236280918121338</v>
       </c>
       <c r="C12">
-        <v>0.34699999999999998</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D12">
-        <v>1.3090434551239039E-2</v>
+        <f>ABS(B12 - C12)</f>
+        <v>1.7637190818786674E-2</v>
       </c>
       <c r="E12">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F12">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G12">
-        <v>2.4180790000000001E-3</v>
+        <v>1.2515849999999999E-3</v>
       </c>
       <c r="H12">
-        <v>2.207709E-3</v>
+        <v>2.5402570000000002E-3</v>
       </c>
       <c r="I12">
-        <v>2.740517E-3</v>
+        <v>1.390084E-3</v>
       </c>
       <c r="J12">
-        <v>1.588157E-3</v>
+        <v>1.953228E-3</v>
       </c>
       <c r="K12">
-        <v>2.622582E-3</v>
+        <v>1.8809810000000001E-3</v>
       </c>
       <c r="L12">
-        <v>2.7204730000000002E-3</v>
+        <v>1.429816E-3</v>
       </c>
       <c r="M12">
-        <v>1.5712E-3</v>
+        <v>2.3488210000000001E-3</v>
       </c>
       <c r="N12">
-        <v>2.755464E-3</v>
+        <v>1.096372E-3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B13">
-        <v>0.1110505387187004</v>
+        <v>0.74245685338973999</v>
       </c>
       <c r="C13">
-        <v>0.12</v>
+        <v>0.76</v>
       </c>
       <c r="D13">
-        <v>8.9494612812996005E-3</v>
+        <f>ABS(B13 - C13)</f>
+        <v>1.7543146610260019E-2</v>
       </c>
       <c r="E13">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F13">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>3.671241E-3</v>
+        <v>1.6278700000000001E-5</v>
       </c>
       <c r="H13">
-        <v>2.1304900000000001E-3</v>
+        <v>4.5665799999999998E-4</v>
       </c>
       <c r="I13">
-        <v>1.6085100000000001E-3</v>
+        <v>1.4968570000000001E-3</v>
       </c>
       <c r="J13">
-        <v>1.7176450000000001E-3</v>
+        <v>1.500181E-3</v>
       </c>
       <c r="K13">
-        <v>2.2382970000000002E-3</v>
+        <v>4.2763399999999998E-4</v>
       </c>
       <c r="L13">
-        <v>2.703296E-3</v>
+        <v>6.2045900000000002E-5</v>
       </c>
       <c r="M13">
-        <v>2.873146E-3</v>
+        <v>1.0079589999999999E-3</v>
       </c>
       <c r="N13">
-        <v>2.655934E-3</v>
+        <v>1.440946E-3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="B14">
-        <v>0.1165687441825867</v>
+        <v>0.30697709321975708</v>
       </c>
       <c r="C14">
-        <v>0.12</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D14">
-        <v>3.4312558174132979E-3</v>
+        <f>ABS(B14 - C14)</f>
+        <v>1.69770932197571E-2</v>
       </c>
       <c r="E14">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G14">
-        <v>2.1137869999999998E-3</v>
+        <v>2.6702729999999999E-3</v>
       </c>
       <c r="H14">
-        <v>5.6239799999999998E-4</v>
+        <v>1.800935E-3</v>
       </c>
       <c r="I14">
-        <v>3.0508999999999999E-5</v>
+        <v>2.8387410000000001E-3</v>
       </c>
       <c r="J14">
-        <v>1.2902399999999999E-4</v>
+        <v>2.1886520000000001E-3</v>
       </c>
       <c r="K14">
-        <v>6.4474900000000002E-4</v>
+        <v>1.6451969999999999E-3</v>
       </c>
       <c r="L14">
-        <v>1.11491E-3</v>
+        <v>2.7441560000000002E-3</v>
       </c>
       <c r="M14">
-        <v>1.2988819999999999E-3</v>
+        <v>2.8097460000000001E-3</v>
       </c>
       <c r="N14">
-        <v>1.0971329999999999E-3</v>
+        <v>1.674551E-3</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>0.16003707051277161</v>
+        <v>0.37690907716751099</v>
       </c>
       <c r="C15">
-        <v>0.16500000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="D15">
-        <v>4.9629294872284013E-3</v>
+        <f>ABS(B15 - C15)</f>
+        <v>1.6909077167511E-2</v>
       </c>
       <c r="E15">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G15">
-        <v>1.8177060000000001E-3</v>
+        <v>2.3616650000000002E-3</v>
       </c>
       <c r="H15">
-        <v>1.6078500000000001E-4</v>
+        <v>2.2930289999999998E-3</v>
       </c>
       <c r="I15">
-        <v>1.35143E-4</v>
+        <v>2.6382279999999998E-3</v>
       </c>
       <c r="J15">
-        <v>8.0365099999999995E-4</v>
+        <v>1.574893E-3</v>
       </c>
       <c r="K15">
-        <v>1.3088799999999999E-3</v>
+        <v>2.8472739999999999E-3</v>
       </c>
       <c r="L15">
-        <v>1.0588069999999999E-3</v>
+        <v>2.411519E-3</v>
       </c>
       <c r="M15">
-        <v>3.9642200000000001E-4</v>
+        <v>1.693045E-3</v>
       </c>
       <c r="N15">
-        <v>3.0571100000000003E-5</v>
+        <v>3.026936E-3</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>0.8040352463722229</v>
+        <v>0.50531977415084839</v>
       </c>
       <c r="C16">
-        <v>0.82</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D16">
-        <v>1.5964753627777051E-2</v>
+        <f>ABS(B16 - C16)</f>
+        <v>1.6319774150848398E-2</v>
       </c>
       <c r="E16">
         <v>3.3459710000000001E-3</v>
@@ -1141,42 +1137,43 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G16">
-        <v>1.0560680000000001E-3</v>
+        <v>1.432114E-3</v>
       </c>
       <c r="H16">
-        <v>1.2435230000000001E-3</v>
+        <v>2.5660280000000001E-3</v>
       </c>
       <c r="I16">
-        <v>1.9379849999999999E-3</v>
+        <v>1.087658E-3</v>
       </c>
       <c r="J16">
-        <v>2.635217E-3</v>
+        <v>2.5206970000000001E-3</v>
       </c>
       <c r="K16">
-        <v>2.6768999999999999E-3</v>
+        <v>1.1316709999999999E-3</v>
       </c>
       <c r="L16">
-        <v>1.906942E-3</v>
+        <v>2.5012340000000002E-3</v>
       </c>
       <c r="M16">
-        <v>1.1586019999999999E-3</v>
+        <v>1.143172E-3</v>
       </c>
       <c r="N16">
-        <v>1.2090390000000001E-3</v>
+        <v>2.4674710000000002E-3</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>7.596433162689209E-2</v>
+        <v>0.8040352463722229</v>
       </c>
       <c r="C17">
-        <v>7.2999999999999995E-2</v>
+        <v>0.82</v>
       </c>
       <c r="D17">
-        <v>2.9643316268920944E-3</v>
+        <f>ABS(B17 - C17)</f>
+        <v>1.5964753627777051E-2</v>
       </c>
       <c r="E17">
         <v>3.3459710000000001E-3</v>
@@ -1185,218 +1182,223 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G17">
-        <v>3.5349230000000001E-3</v>
+        <v>1.0560680000000001E-3</v>
       </c>
       <c r="H17">
-        <v>2.3394620000000001E-3</v>
+        <v>1.2435230000000001E-3</v>
       </c>
       <c r="I17">
-        <v>1.6453699999999999E-3</v>
+        <v>1.9379849999999999E-3</v>
       </c>
       <c r="J17">
-        <v>1.1973330000000001E-3</v>
+        <v>2.635217E-3</v>
       </c>
       <c r="K17">
-        <v>1.0774059999999999E-3</v>
+        <v>2.6768999999999999E-3</v>
       </c>
       <c r="L17">
-        <v>1.1487859999999999E-3</v>
+        <v>1.906942E-3</v>
       </c>
       <c r="M17">
-        <v>1.410981E-3</v>
+        <v>1.1586019999999999E-3</v>
       </c>
       <c r="N17">
-        <v>1.754149E-3</v>
+        <v>1.2090390000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.89433419704437256</v>
+        <v>0.37577927112579351</v>
       </c>
       <c r="C18">
-        <v>0.89600000000000002</v>
+        <v>0.36</v>
       </c>
       <c r="D18">
-        <v>1.6658029556274601E-3</v>
+        <f>ABS(B18 - C18)</f>
+        <v>1.5779271125793526E-2</v>
       </c>
       <c r="E18">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G18">
-        <v>-9.7159900000000008E-6</v>
+        <v>1.8348290000000001E-3</v>
       </c>
       <c r="H18">
-        <v>1.4965400000000001E-5</v>
+        <v>1.767769E-3</v>
       </c>
       <c r="I18">
-        <v>1.8280299999999999E-4</v>
+        <v>2.1193929999999998E-3</v>
       </c>
       <c r="J18">
-        <v>4.9002900000000001E-4</v>
+        <v>1.0449960000000001E-3</v>
       </c>
       <c r="K18">
-        <v>9.6528599999999999E-4</v>
+        <v>2.3279080000000001E-3</v>
       </c>
       <c r="L18">
-        <v>1.3912709999999999E-3</v>
+        <v>1.8958689999999999E-3</v>
       </c>
       <c r="M18">
-        <v>1.664158E-3</v>
+        <v>1.164799E-3</v>
       </c>
       <c r="N18">
-        <v>1.6617750000000001E-3</v>
+        <v>2.5139030000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B19">
-        <v>0.37577927112579351</v>
+        <v>0.2483813613653183</v>
       </c>
       <c r="C19">
-        <v>0.36</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="D19">
-        <v>1.5779271125793526E-2</v>
+        <f>ABS(B19 - C19)</f>
+        <v>1.5381361365318286E-2</v>
       </c>
       <c r="E19">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F19">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1.8348290000000001E-3</v>
+        <v>1.39536E-3</v>
       </c>
       <c r="H19">
-        <v>1.767769E-3</v>
+        <v>4.8624100000000001E-6</v>
       </c>
       <c r="I19">
-        <v>2.1193929999999998E-3</v>
+        <v>8.1966299999999999E-4</v>
       </c>
       <c r="J19">
-        <v>1.0449960000000001E-3</v>
+        <v>1.2540679999999999E-3</v>
       </c>
       <c r="K19">
-        <v>2.3279080000000001E-3</v>
+        <v>5.01604E-4</v>
       </c>
       <c r="L19">
-        <v>1.8958689999999999E-3</v>
+        <v>-9.0326099999999996E-6</v>
       </c>
       <c r="M19">
-        <v>1.164799E-3</v>
+        <v>7.7245999999999999E-4</v>
       </c>
       <c r="N19">
-        <v>2.5139030000000001E-3</v>
+        <v>1.4766689999999999E-3</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B20">
-        <v>0.51590335369110107</v>
+        <v>0.54479008913040161</v>
       </c>
       <c r="C20">
-        <v>0.51600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="D20">
-        <v>9.6646308898939992E-5</v>
+        <f>ABS(B20 - C20)</f>
+        <v>1.5209910869598442E-2</v>
       </c>
       <c r="E20">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F20">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1.3777380000000001E-3</v>
+        <v>2.2021899999999999E-4</v>
       </c>
       <c r="H20">
-        <v>2.6007690000000002E-3</v>
+        <v>1.514341E-3</v>
       </c>
       <c r="I20">
-        <v>1.094072E-3</v>
+        <v>3.5114100000000002E-4</v>
       </c>
       <c r="J20">
-        <v>2.500679E-3</v>
+        <v>9.2241800000000004E-4</v>
       </c>
       <c r="K20">
-        <v>1.1437400000000001E-3</v>
+        <v>8.39185E-4</v>
       </c>
       <c r="L20">
-        <v>2.4495820000000001E-3</v>
+        <v>3.9321700000000001E-4</v>
       </c>
       <c r="M20">
-        <v>1.209159E-3</v>
+        <v>1.307487E-3</v>
       </c>
       <c r="N20">
-        <v>2.3690209999999998E-3</v>
+        <v>5.1530399999999997E-5</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B21">
-        <v>0.81374448537826538</v>
+        <v>0.96479284763336182</v>
       </c>
       <c r="C21">
-        <v>0.82</v>
+        <v>0.98</v>
       </c>
       <c r="D21">
-        <v>6.2555146217345703E-3</v>
+        <f>ABS(B21 - C21)</f>
+        <v>1.5207152366638166E-2</v>
       </c>
       <c r="E21">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F21">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G21">
-        <v>1.5778540000000001E-3</v>
+        <v>1.0324100000000001E-3</v>
       </c>
       <c r="H21">
-        <v>1.7694710000000001E-3</v>
+        <v>1.024257E-3</v>
       </c>
       <c r="I21">
-        <v>2.4759750000000001E-3</v>
+        <v>1.0433160000000001E-3</v>
       </c>
       <c r="J21">
-        <v>3.1879500000000002E-3</v>
+        <v>1.031887E-3</v>
       </c>
       <c r="K21">
-        <v>3.2338940000000002E-3</v>
+        <v>1.060456E-3</v>
       </c>
       <c r="L21">
-        <v>2.4519149999999998E-3</v>
+        <v>1.048174E-3</v>
       </c>
       <c r="M21">
-        <v>1.686328E-3</v>
+        <v>1.058448E-3</v>
       </c>
       <c r="N21">
-        <v>1.732293E-3</v>
+        <v>1.0848120000000001E-3</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B22">
-        <v>0.93321317434310913</v>
+        <v>0.89156895875930786</v>
       </c>
       <c r="C22">
-        <v>0.94599999999999995</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="D22">
-        <v>1.2786825656890821E-2</v>
+        <f>ABS(B22 - C22)</f>
+        <v>1.4431041240692166E-2</v>
       </c>
       <c r="E22">
         <v>3.3459710000000001E-3</v>
@@ -1405,86 +1407,88 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G22">
-        <v>1.56185E-3</v>
+        <v>1.564616E-3</v>
       </c>
       <c r="H22">
-        <v>1.562903E-3</v>
+        <v>1.584731E-3</v>
       </c>
       <c r="I22">
-        <v>1.5984009999999999E-3</v>
+        <v>1.7115940000000001E-3</v>
       </c>
       <c r="J22">
-        <v>1.628719E-3</v>
+        <v>1.9422790000000001E-3</v>
       </c>
       <c r="K22">
-        <v>1.7369200000000001E-3</v>
+        <v>2.339355E-3</v>
       </c>
       <c r="L22">
-        <v>1.849463E-3</v>
+        <v>2.7435699999999999E-3</v>
       </c>
       <c r="M22">
-        <v>2.0295249999999999E-3</v>
+        <v>3.0973369999999999E-3</v>
       </c>
       <c r="N22">
-        <v>2.2618769999999998E-3</v>
+        <v>3.2779860000000001E-3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="B23">
-        <v>0.68890184164047241</v>
+        <v>0.64601165056228638</v>
       </c>
       <c r="C23">
-        <v>0.68700000000000006</v>
+        <v>0.66</v>
       </c>
       <c r="D23">
-        <v>1.901841640472357E-3</v>
+        <f>ABS(B23 - C23)</f>
+        <v>1.3988349437713654E-2</v>
       </c>
       <c r="E23">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G23">
-        <v>9.6497599999999996E-5</v>
+        <v>1.119047E-3</v>
       </c>
       <c r="H23">
-        <v>9.4294699999999997E-4</v>
+        <v>2.1094730000000002E-3</v>
       </c>
       <c r="I23">
-        <v>1.70218E-3</v>
+        <v>2.5397729999999999E-3</v>
       </c>
       <c r="J23">
-        <v>3.6509800000000001E-4</v>
+        <v>1.093403E-3</v>
       </c>
       <c r="K23">
-        <v>3.7229299999999999E-4</v>
+        <v>1.932666E-3</v>
       </c>
       <c r="L23">
-        <v>1.48715E-3</v>
+        <v>2.3107449999999999E-3</v>
       </c>
       <c r="M23">
-        <v>5.9425099999999996E-4</v>
+        <v>1.0666619999999999E-3</v>
       </c>
       <c r="N23">
-        <v>1.81657E-4</v>
+        <v>2.0376069999999999E-3</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B24">
-        <v>0.48469537496566772</v>
+        <v>0.18660511076450351</v>
       </c>
       <c r="C24">
-        <v>0.48899999999999999</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D24">
-        <v>4.3046250343322656E-3</v>
+        <f>ABS(B24 - C24)</f>
+        <v>1.360511076450352E-2</v>
       </c>
       <c r="E24">
         <v>3.3459710000000001E-3</v>
@@ -1493,174 +1497,178 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G24">
-        <v>1.9495929999999999E-3</v>
+        <v>3.3140079999999998E-3</v>
       </c>
       <c r="H24">
-        <v>3.0502649999999999E-3</v>
+        <v>1.6711880000000001E-3</v>
       </c>
       <c r="I24">
-        <v>1.5916120000000001E-3</v>
+        <v>1.7687390000000001E-3</v>
       </c>
       <c r="J24">
-        <v>3.0231530000000002E-3</v>
+        <v>2.4913130000000002E-3</v>
       </c>
       <c r="K24">
-        <v>1.6279949999999999E-3</v>
+        <v>2.873156E-3</v>
       </c>
       <c r="L24">
-        <v>2.987787E-3</v>
+        <v>2.4500250000000002E-3</v>
       </c>
       <c r="M24">
-        <v>1.640215E-3</v>
+        <v>1.764222E-3</v>
       </c>
       <c r="N24">
-        <v>2.9416260000000001E-3</v>
+        <v>1.62728E-3</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="B25">
-        <v>0.59528058767318726</v>
+        <v>0.54948115348815918</v>
       </c>
       <c r="C25">
-        <v>0.59</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="D25">
-        <v>5.2805876731872869E-3</v>
+        <f>ABS(B25 - C25)</f>
+        <v>1.3518846511840765E-2</v>
       </c>
       <c r="E25">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F25">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G25">
-        <v>1.7520400000000001E-3</v>
+        <v>1.262127E-3</v>
       </c>
       <c r="H25">
-        <v>3.0341410000000002E-3</v>
+        <v>2.5639759999999999E-3</v>
       </c>
       <c r="I25">
-        <v>2.2960440000000001E-3</v>
+        <v>1.434924E-3</v>
       </c>
       <c r="J25">
-        <v>2.022378E-3</v>
+        <v>1.9273319999999999E-3</v>
       </c>
       <c r="K25">
-        <v>2.9734919999999999E-3</v>
+        <v>1.957482E-3</v>
       </c>
       <c r="L25">
-        <v>1.579099E-3</v>
+        <v>1.383801E-3</v>
       </c>
       <c r="M25">
-        <v>2.9927199999999999E-3</v>
+        <v>2.418641E-3</v>
       </c>
       <c r="N25">
-        <v>2.005256E-3</v>
+        <v>1.085262E-3</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B26">
-        <v>0.2125107944011688</v>
+        <v>0.78258579969406128</v>
       </c>
       <c r="C26">
-        <v>0.21</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="D26">
-        <v>2.5107944011688033E-3</v>
+        <f>ABS(B26 - C26)</f>
+        <v>1.3414200305938762E-2</v>
       </c>
       <c r="E26">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G26">
-        <v>1.562978E-3</v>
+        <v>1.0490370000000001E-3</v>
       </c>
       <c r="H26">
-        <v>-8.9638599999999996E-6</v>
+        <v>1.3285580000000001E-3</v>
       </c>
       <c r="I26">
-        <v>5.8158099999999996E-4</v>
+        <v>2.2011130000000002E-3</v>
       </c>
       <c r="J26">
-        <v>1.2982650000000001E-3</v>
+        <v>2.7429469999999999E-3</v>
       </c>
       <c r="K26">
-        <v>9.5641400000000005E-4</v>
+        <v>2.272109E-3</v>
       </c>
       <c r="L26">
-        <v>1.20505E-4</v>
+        <v>1.2989799999999999E-3</v>
       </c>
       <c r="M26">
-        <v>1.8397699999999999E-4</v>
+        <v>1.129419E-3</v>
       </c>
       <c r="N26">
-        <v>1.115752E-3</v>
+        <v>1.942928E-3</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="B27">
-        <v>0.74245685338973999</v>
+        <v>0.67380541563034058</v>
       </c>
       <c r="C27">
-        <v>0.76</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="D27">
-        <v>1.7543146610260019E-2</v>
+        <f>ABS(B27 - C27)</f>
+        <v>1.3194584369659479E-2</v>
       </c>
       <c r="E27">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G27">
-        <v>1.6278700000000001E-5</v>
+        <v>1.098225E-3</v>
       </c>
       <c r="H27">
-        <v>4.5665799999999998E-4</v>
+        <v>1.9559769999999998E-3</v>
       </c>
       <c r="I27">
-        <v>1.4968570000000001E-3</v>
+        <v>2.7203459999999998E-3</v>
       </c>
       <c r="J27">
-        <v>1.500181E-3</v>
+        <v>1.4023040000000001E-3</v>
       </c>
       <c r="K27">
-        <v>4.2763399999999998E-4</v>
+        <v>1.393743E-3</v>
       </c>
       <c r="L27">
-        <v>6.2045900000000002E-5</v>
+        <v>2.513323E-3</v>
       </c>
       <c r="M27">
-        <v>1.0079589999999999E-3</v>
+        <v>1.623659E-3</v>
       </c>
       <c r="N27">
-        <v>1.440946E-3</v>
+        <v>1.2105849999999999E-3</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>0.51071679592132568</v>
+        <v>0.36009043455123901</v>
       </c>
       <c r="C28">
-        <v>0.51600000000000001</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D28">
-        <v>5.2832040786743306E-3</v>
+        <f>ABS(B28 - C28)</f>
+        <v>1.3090434551239039E-2</v>
       </c>
       <c r="E28">
         <v>3.3459710000000001E-3</v>
@@ -1669,130 +1677,133 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G28">
-        <v>1.8847029999999999E-3</v>
+        <v>2.4180790000000001E-3</v>
       </c>
       <c r="H28">
-        <v>3.1074079999999999E-3</v>
+        <v>2.207709E-3</v>
       </c>
       <c r="I28">
-        <v>1.6206409999999999E-3</v>
+        <v>2.740517E-3</v>
       </c>
       <c r="J28">
-        <v>3.0099929999999999E-3</v>
+        <v>1.588157E-3</v>
       </c>
       <c r="K28">
-        <v>1.6692580000000001E-3</v>
+        <v>2.622582E-3</v>
       </c>
       <c r="L28">
-        <v>2.952508E-3</v>
+        <v>2.7204730000000002E-3</v>
       </c>
       <c r="M28">
-        <v>1.7315130000000001E-3</v>
+        <v>1.5712E-3</v>
       </c>
       <c r="N28">
-        <v>2.875973E-3</v>
+        <v>2.755464E-3</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>6.4812436699867249E-2</v>
+        <v>0.93312740325927734</v>
       </c>
       <c r="C29">
-        <v>5.6000000000000001E-2</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D29">
-        <v>8.8124366998672474E-3</v>
+        <f>ABS(B29 - C29)</f>
+        <v>1.2872596740722608E-2</v>
       </c>
       <c r="E29">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F29">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>3.613462E-3</v>
+        <v>-1.3821E-5</v>
       </c>
       <c r="H29">
-        <v>2.6655749999999999E-3</v>
+        <v>-1.7150600000000001E-5</v>
       </c>
       <c r="I29">
-        <v>2.0217619999999999E-3</v>
+        <v>1.7515000000000001E-5</v>
       </c>
       <c r="J29">
-        <v>1.5136590000000001E-3</v>
+        <v>4.7853499999999998E-5</v>
       </c>
       <c r="K29">
-        <v>1.2257920000000001E-3</v>
+        <v>1.5737800000000001E-4</v>
       </c>
       <c r="L29">
-        <v>1.063617E-3</v>
+        <v>2.72661E-4</v>
       </c>
       <c r="M29">
-        <v>1.0700180000000001E-3</v>
+        <v>4.5694699999999997E-4</v>
       </c>
       <c r="N29">
-        <v>1.209569E-3</v>
+        <v>6.9489900000000002E-4</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>0.16386102139949801</v>
+        <v>0.93321317434310913</v>
       </c>
       <c r="C30">
-        <v>0.16500000000000001</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D30">
-        <v>1.1389786005019942E-3</v>
+        <f>ABS(B30 - C30)</f>
+        <v>1.2786825656890821E-2</v>
       </c>
       <c r="E30">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F30">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G30">
-        <v>2.8580929999999999E-3</v>
+        <v>1.56185E-3</v>
       </c>
       <c r="H30">
-        <v>1.209878E-3</v>
+        <v>1.562903E-3</v>
       </c>
       <c r="I30">
-        <v>1.1883099999999999E-3</v>
+        <v>1.5984009999999999E-3</v>
       </c>
       <c r="J30">
-        <v>1.866007E-3</v>
+        <v>1.628719E-3</v>
       </c>
       <c r="K30">
-        <v>2.3615939999999998E-3</v>
+        <v>1.7369200000000001E-3</v>
       </c>
       <c r="L30">
-        <v>2.1057419999999999E-3</v>
+        <v>1.849463E-3</v>
       </c>
       <c r="M30">
-        <v>1.440357E-3</v>
+        <v>2.0295249999999999E-3</v>
       </c>
       <c r="N30">
-        <v>1.087848E-3</v>
+        <v>2.2618769999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B31">
-        <v>0.50531977415084839</v>
+        <v>0.67729514837265015</v>
       </c>
       <c r="C31">
-        <v>0.48899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="D31">
-        <v>1.6319774150848398E-2</v>
+        <f>ABS(B31 - C31)</f>
+        <v>1.27048516273498E-2</v>
       </c>
       <c r="E31">
         <v>3.3459710000000001E-3</v>
@@ -1801,160 +1812,163 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G31">
-        <v>1.432114E-3</v>
+        <v>1.1306249999999999E-3</v>
       </c>
       <c r="H31">
-        <v>2.5660280000000001E-3</v>
+        <v>1.951508E-3</v>
       </c>
       <c r="I31">
-        <v>1.087658E-3</v>
+        <v>2.748178E-3</v>
       </c>
       <c r="J31">
-        <v>2.5206970000000001E-3</v>
+        <v>1.447844E-3</v>
       </c>
       <c r="K31">
-        <v>1.1316709999999999E-3</v>
+        <v>1.357434E-3</v>
       </c>
       <c r="L31">
-        <v>2.5012340000000002E-3</v>
+        <v>2.5125260000000002E-3</v>
       </c>
       <c r="M31">
-        <v>1.143172E-3</v>
+        <v>1.7253450000000001E-3</v>
       </c>
       <c r="N31">
-        <v>2.4674710000000002E-3</v>
+        <v>1.1597770000000001E-3</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B32">
-        <v>0.88754910230636597</v>
+        <v>0.42652922868728638</v>
       </c>
       <c r="C32">
-        <v>0.89600000000000002</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D32">
-        <v>8.4508976936340519E-3</v>
+        <f>ABS(B32 - C32)</f>
+        <v>1.2529228687286398E-2</v>
       </c>
       <c r="E32">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F32">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1.041497E-3</v>
+        <v>6.0752199999999999E-4</v>
       </c>
       <c r="H32">
-        <v>1.069246E-3</v>
+        <v>1.143282E-3</v>
       </c>
       <c r="I32">
-        <v>1.2370510000000001E-3</v>
+        <v>5.4572799999999999E-4</v>
       </c>
       <c r="J32">
-        <v>1.5423769999999999E-3</v>
+        <v>5.1350199999999999E-4</v>
       </c>
       <c r="K32">
-        <v>2.014306E-3</v>
+        <v>1.3691840000000001E-3</v>
       </c>
       <c r="L32">
-        <v>2.4371269999999999E-3</v>
+        <v>3.4906999999999999E-6</v>
       </c>
       <c r="M32">
-        <v>2.708893E-3</v>
+        <v>1.4618999999999999E-3</v>
       </c>
       <c r="N32">
-        <v>2.7081599999999998E-3</v>
+        <v>3.1891200000000003E-4</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B33">
-        <v>0.2119668573141098</v>
+        <v>0.42642706632614141</v>
       </c>
       <c r="C33">
-        <v>0.21</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="D33">
-        <v>1.96685731410981E-3</v>
+        <f>ABS(B33 - C33)</f>
+        <v>1.2427066326141434E-2</v>
       </c>
       <c r="E33">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F33">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G33">
-        <v>3.1081199999999998E-3</v>
+        <v>1.633691E-3</v>
       </c>
       <c r="H33">
-        <v>1.570281E-3</v>
+        <v>2.1613219999999998E-3</v>
       </c>
       <c r="I33">
-        <v>2.1574239999999998E-3</v>
+        <v>1.5794279999999999E-3</v>
       </c>
       <c r="J33">
-        <v>2.8549840000000001E-3</v>
+        <v>1.549789E-3</v>
       </c>
       <c r="K33">
-        <v>2.5081700000000001E-3</v>
+        <v>2.3844999999999999E-3</v>
       </c>
       <c r="L33">
-        <v>1.69221E-3</v>
+        <v>1.056509E-3</v>
       </c>
       <c r="M33">
-        <v>1.7756779999999999E-3</v>
+        <v>2.4823839999999998E-3</v>
       </c>
       <c r="N33">
-        <v>2.6955519999999999E-3</v>
+        <v>1.3582620000000001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B34">
-        <v>0.93312740325927734</v>
+        <v>0.86368107795715332</v>
       </c>
       <c r="C34">
-        <v>0.94599999999999995</v>
+        <v>0.876</v>
       </c>
       <c r="D34">
-        <v>1.2872596740722608E-2</v>
+        <f>ABS(B34 - C34)</f>
+        <v>1.2318922042846681E-2</v>
       </c>
       <c r="E34">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G34">
-        <v>-1.3821E-5</v>
+        <v>1.569076E-3</v>
       </c>
       <c r="H34">
-        <v>-1.7150600000000001E-5</v>
+        <v>1.6236040000000001E-3</v>
       </c>
       <c r="I34">
-        <v>1.7515000000000001E-5</v>
+        <v>1.9055980000000001E-3</v>
       </c>
       <c r="J34">
-        <v>4.7853499999999998E-5</v>
+        <v>2.388481E-3</v>
       </c>
       <c r="K34">
-        <v>1.5737800000000001E-4</v>
+        <v>2.9736599999999999E-3</v>
       </c>
       <c r="L34">
-        <v>2.72661E-4</v>
+        <v>3.2985829999999999E-3</v>
       </c>
       <c r="M34">
-        <v>4.5694699999999997E-4</v>
+        <v>3.2256849999999998E-3</v>
       </c>
       <c r="N34">
-        <v>6.9489900000000002E-4</v>
+        <v>2.7680389999999999E-3</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -1968,6 +1982,7 @@
         <v>0.79600000000000004</v>
       </c>
       <c r="D35">
+        <f>ABS(B35 - C35)</f>
         <v>1.227420186996464E-2</v>
       </c>
       <c r="E35">
@@ -2003,192 +2018,197 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="B36">
-        <v>0.59101951122283936</v>
+        <v>0.80821633338928223</v>
       </c>
       <c r="C36">
-        <v>0.56299999999999994</v>
+        <v>0.82</v>
       </c>
       <c r="D36">
-        <v>2.8019511222839411E-2</v>
+        <f>ABS(B36 - C36)</f>
+        <v>1.1783666610717725E-2</v>
       </c>
       <c r="E36">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F36">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>1.7899929999999999E-3</v>
+        <v>-2.3471700000000002E-6</v>
       </c>
       <c r="H36">
-        <v>3.0682000000000001E-3</v>
+        <v>1.84759E-4</v>
       </c>
       <c r="I36">
-        <v>1.9587599999999999E-3</v>
+        <v>8.7353799999999998E-4</v>
       </c>
       <c r="J36">
-        <v>2.4381730000000001E-3</v>
+        <v>1.565571E-3</v>
       </c>
       <c r="K36">
-        <v>2.4691549999999998E-3</v>
+        <v>1.607748E-3</v>
       </c>
       <c r="L36">
-        <v>1.8905180000000001E-3</v>
+        <v>8.4265200000000005E-4</v>
       </c>
       <c r="M36">
-        <v>2.9148669999999998E-3</v>
+        <v>9.8060199999999993E-5</v>
       </c>
       <c r="N36">
-        <v>1.592869E-3</v>
+        <v>1.48412E-4</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B37">
-        <v>0.76274675130844116</v>
+        <v>7.0000097155570984E-2</v>
       </c>
       <c r="C37">
-        <v>0.76</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D37">
-        <v>2.7467513084411532E-3</v>
+        <f>ABS(B37 - C37)</f>
+        <v>1.0999902844429019E-2</v>
       </c>
       <c r="E37">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F37">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1.594778E-3</v>
+        <v>2.374148E-3</v>
       </c>
       <c r="H37">
-        <v>2.0362259999999999E-3</v>
+        <v>1.1361399999999999E-3</v>
       </c>
       <c r="I37">
-        <v>3.0788590000000002E-3</v>
+        <v>4.3773E-4</v>
       </c>
       <c r="J37">
-        <v>3.0873239999999998E-3</v>
+        <v>4.8497900000000002E-5</v>
       </c>
       <c r="K37">
-        <v>2.015354E-3</v>
+        <v>3.4390700000000003E-5</v>
       </c>
       <c r="L37">
-        <v>1.643018E-3</v>
+        <v>2.12597E-4</v>
       </c>
       <c r="M37">
-        <v>2.5868190000000002E-3</v>
+        <v>5.3994399999999999E-4</v>
       </c>
       <c r="N37">
-        <v>3.0290629999999998E-3</v>
+        <v>8.9895399999999999E-4</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B38">
-        <v>0.79055887460708618</v>
+        <v>0.17582142353057861</v>
       </c>
       <c r="C38">
-        <v>0.81</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D38">
-        <v>1.9441125392913872E-2</v>
+        <f>ABS(B38 - C38)</f>
+        <v>1.0821423530578606E-2</v>
       </c>
       <c r="E38">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F38">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G38">
-        <v>1.0481679999999999E-3</v>
+        <v>3.3659879999999999E-3</v>
       </c>
       <c r="H38">
-        <v>1.2696890000000001E-3</v>
+        <v>1.725793E-3</v>
       </c>
       <c r="I38">
-        <v>2.0332390000000001E-3</v>
+        <v>1.7103559999999999E-3</v>
       </c>
       <c r="J38">
-        <v>2.6844239999999999E-3</v>
+        <v>2.3761820000000001E-3</v>
       </c>
       <c r="K38">
-        <v>2.5233959999999998E-3</v>
+        <v>2.8627800000000001E-3</v>
       </c>
       <c r="L38">
-        <v>1.624833E-3</v>
+        <v>2.6020169999999999E-3</v>
       </c>
       <c r="M38">
-        <v>1.0580870000000001E-3</v>
+        <v>1.9299440000000001E-3</v>
       </c>
       <c r="N38">
-        <v>1.464782E-3</v>
+        <v>1.5933399999999999E-3</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.65594387054443359</v>
+        <v>0.47680991888046259</v>
       </c>
       <c r="C39">
-        <v>0.66</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D39">
-        <v>4.0561294555664373E-3</v>
+        <f>ABS(B39 - C39)</f>
+        <v>1.0809918880462566E-2</v>
       </c>
       <c r="E39">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F39">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1.663103E-3</v>
+        <v>4.5270199999999998E-4</v>
       </c>
       <c r="H39">
-        <v>2.65468E-3</v>
+        <v>1.4643919999999999E-3</v>
       </c>
       <c r="I39">
-        <v>3.0884480000000001E-3</v>
+        <v>9.4949800000000004E-5</v>
       </c>
       <c r="J39">
-        <v>1.633032E-3</v>
+        <v>1.3362350000000001E-3</v>
       </c>
       <c r="K39">
-        <v>2.4720319999999999E-3</v>
+        <v>3.5916300000000002E-4</v>
       </c>
       <c r="L39">
-        <v>2.8564049999999998E-3</v>
+        <v>1.0569010000000001E-3</v>
       </c>
       <c r="M39">
-        <v>1.602175E-3</v>
+        <v>6.4724200000000002E-4</v>
       </c>
       <c r="N39">
-        <v>2.5717499999999998E-3</v>
+        <v>7.4598799999999995E-4</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>0.94572502374649048</v>
+        <v>0.89572721719741821</v>
       </c>
       <c r="C40">
-        <v>0.94599999999999995</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="D40">
-        <v>2.7497625350947352E-4</v>
+        <f>ABS(B40 - C40)</f>
+        <v>1.0272782802581815E-2</v>
       </c>
       <c r="E40">
         <v>3.3459710000000001E-3</v>
@@ -2197,86 +2217,88 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G40">
-        <v>1.019531E-3</v>
+        <v>1.049052E-3</v>
       </c>
       <c r="H40">
-        <v>1.0197629999999999E-3</v>
+        <v>1.0664660000000001E-3</v>
       </c>
       <c r="I40">
-        <v>1.056193E-3</v>
+        <v>1.1923509999999999E-3</v>
       </c>
       <c r="J40">
-        <v>1.0878190000000001E-3</v>
+        <v>1.4231409999999999E-3</v>
       </c>
       <c r="K40">
-        <v>1.1977540000000001E-3</v>
+        <v>1.821254E-3</v>
       </c>
       <c r="L40">
-        <v>1.3124639999999999E-3</v>
+        <v>2.2269400000000002E-3</v>
       </c>
       <c r="M40">
-        <v>1.49512E-3</v>
+        <v>2.5820109999999999E-3</v>
       </c>
       <c r="N40">
-        <v>1.7304359999999999E-3</v>
+        <v>2.7635070000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B41">
-        <v>0.61626732349395752</v>
+        <v>0.29980921745300287</v>
       </c>
       <c r="C41">
-        <v>0.59</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D41">
-        <v>2.6267323493957551E-2</v>
+        <f>ABS(B41 - C41)</f>
+        <v>9.8092174530028942E-3</v>
       </c>
       <c r="E41">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F41">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1.1781649999999999E-3</v>
+        <v>1.0985999999999999E-3</v>
       </c>
       <c r="H41">
-        <v>2.4449290000000002E-3</v>
+        <v>2.18798E-4</v>
       </c>
       <c r="I41">
-        <v>1.732354E-3</v>
+        <v>1.2629780000000001E-3</v>
       </c>
       <c r="J41">
-        <v>1.478207E-3</v>
+        <v>6.1846600000000002E-4</v>
       </c>
       <c r="K41">
-        <v>2.4151239999999998E-3</v>
+        <v>5.8366299999999997E-5</v>
       </c>
       <c r="L41">
-        <v>1.0528790000000001E-3</v>
+        <v>1.1553959999999999E-3</v>
       </c>
       <c r="M41">
-        <v>2.447252E-3</v>
+        <v>1.245997E-3</v>
       </c>
       <c r="N41">
-        <v>1.470903E-3</v>
+        <v>1.01106E-4</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B42">
-        <v>0.2483813613653183</v>
+        <v>0.26410001516342158</v>
       </c>
       <c r="C42">
-        <v>0.23300000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="D42">
-        <v>1.5381361365318286E-2</v>
+        <f>ABS(B42 - C42)</f>
+        <v>9.1000151634215709E-3</v>
       </c>
       <c r="E42">
         <v>3.3459710000000001E-3</v>
@@ -2285,306 +2307,313 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1.39536E-3</v>
+        <v>1.292694E-3</v>
       </c>
       <c r="H42">
-        <v>4.8624100000000001E-6</v>
+        <v>8.30721E-5</v>
       </c>
       <c r="I42">
-        <v>8.1966299999999999E-4</v>
+        <v>1.051143E-3</v>
       </c>
       <c r="J42">
-        <v>1.2540679999999999E-3</v>
+        <v>1.115759E-3</v>
       </c>
       <c r="K42">
-        <v>5.01604E-4</v>
+        <v>1.78068E-4</v>
       </c>
       <c r="L42">
-        <v>-9.0326099999999996E-6</v>
+        <v>3.1999200000000001E-4</v>
       </c>
       <c r="M42">
-        <v>7.7245999999999999E-4</v>
+        <v>1.3686060000000001E-3</v>
       </c>
       <c r="N42">
-        <v>1.4766689999999999E-3</v>
+        <v>1.180501E-3</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B43">
-        <v>0.23257538676261899</v>
+        <v>0.1110505387187004</v>
       </c>
       <c r="C43">
-        <v>0.23300000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="D43">
-        <v>4.2461323738102186E-4</v>
+        <f>ABS(B43 - C43)</f>
+        <v>8.9494612812996005E-3</v>
       </c>
       <c r="E43">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F43">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G43">
-        <v>2.4318120000000002E-3</v>
+        <v>3.671241E-3</v>
       </c>
       <c r="H43">
-        <v>1.0592189999999999E-3</v>
+        <v>2.1304900000000001E-3</v>
       </c>
       <c r="I43">
-        <v>1.8789340000000001E-3</v>
+        <v>1.6085100000000001E-3</v>
       </c>
       <c r="J43">
-        <v>2.3000989999999999E-3</v>
+        <v>1.7176450000000001E-3</v>
       </c>
       <c r="K43">
-        <v>1.555706E-3</v>
+        <v>2.2382970000000002E-3</v>
       </c>
       <c r="L43">
-        <v>1.0765880000000001E-3</v>
+        <v>2.703296E-3</v>
       </c>
       <c r="M43">
-        <v>1.8633199999999999E-3</v>
+        <v>2.873146E-3</v>
       </c>
       <c r="N43">
-        <v>2.5443660000000002E-3</v>
+        <v>2.655934E-3</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>0.47680991888046259</v>
+        <v>6.4812436699867249E-2</v>
       </c>
       <c r="C44">
-        <v>0.46600000000000003</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D44">
-        <v>1.0809918880462566E-2</v>
+        <f>ABS(B44 - C44)</f>
+        <v>8.8124366998672474E-3</v>
       </c>
       <c r="E44">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G44">
-        <v>4.5270199999999998E-4</v>
+        <v>3.613462E-3</v>
       </c>
       <c r="H44">
-        <v>1.4643919999999999E-3</v>
+        <v>2.6655749999999999E-3</v>
       </c>
       <c r="I44">
-        <v>9.4949800000000004E-5</v>
+        <v>2.0217619999999999E-3</v>
       </c>
       <c r="J44">
-        <v>1.3362350000000001E-3</v>
+        <v>1.5136590000000001E-3</v>
       </c>
       <c r="K44">
-        <v>3.5916300000000002E-4</v>
+        <v>1.2257920000000001E-3</v>
       </c>
       <c r="L44">
-        <v>1.0569010000000001E-3</v>
+        <v>1.063617E-3</v>
       </c>
       <c r="M44">
-        <v>6.4724200000000002E-4</v>
+        <v>1.0700180000000001E-3</v>
       </c>
       <c r="N44">
-        <v>7.4598799999999995E-4</v>
+        <v>1.209569E-3</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>0.54479008913040161</v>
+        <v>0.88754910230636597</v>
       </c>
       <c r="C45">
-        <v>0.56000000000000005</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D45">
-        <v>1.5209910869598442E-2</v>
+        <f>ABS(B45 - C45)</f>
+        <v>8.4508976936340519E-3</v>
       </c>
       <c r="E45">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G45">
-        <v>2.2021899999999999E-4</v>
+        <v>1.041497E-3</v>
       </c>
       <c r="H45">
-        <v>1.514341E-3</v>
+        <v>1.069246E-3</v>
       </c>
       <c r="I45">
-        <v>3.5114100000000002E-4</v>
+        <v>1.2370510000000001E-3</v>
       </c>
       <c r="J45">
-        <v>9.2241800000000004E-4</v>
+        <v>1.5423769999999999E-3</v>
       </c>
       <c r="K45">
-        <v>8.39185E-4</v>
+        <v>2.014306E-3</v>
       </c>
       <c r="L45">
-        <v>3.9321700000000001E-4</v>
+        <v>2.4371269999999999E-3</v>
       </c>
       <c r="M45">
-        <v>1.307487E-3</v>
+        <v>2.708893E-3</v>
       </c>
       <c r="N45">
-        <v>5.1530399999999997E-5</v>
+        <v>2.7081599999999998E-3</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B46">
-        <v>6.7176520824432373E-2</v>
+        <v>0.31683400273323059</v>
       </c>
       <c r="C46">
-        <v>7.2999999999999995E-2</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="D46">
-        <v>5.8234791755676224E-3</v>
+        <f>ABS(B46 - C46)</f>
+        <v>8.1659972667694203E-3</v>
       </c>
       <c r="E46">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F46">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>4.0474409999999997E-3</v>
+        <v>9.5751199999999999E-4</v>
       </c>
       <c r="H46">
-        <v>2.8590080000000001E-3</v>
+        <v>4.7555399999999999E-4</v>
       </c>
       <c r="I46">
-        <v>2.1696469999999998E-3</v>
+        <v>1.290266E-3</v>
       </c>
       <c r="J46">
-        <v>1.7271089999999999E-3</v>
+        <v>1.77491E-4</v>
       </c>
       <c r="K46">
-        <v>1.6079530000000001E-3</v>
+        <v>5.9929199999999997E-4</v>
       </c>
       <c r="L46">
-        <v>1.6935590000000001E-3</v>
+        <v>1.486862E-3</v>
       </c>
       <c r="M46">
-        <v>1.94534E-3</v>
+        <v>2.9353099999999998E-4</v>
       </c>
       <c r="N46">
-        <v>2.2822139999999999E-3</v>
+        <v>4.6819500000000003E-4</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B47">
-        <v>0.54236280918121338</v>
+        <v>0.35195291042327881</v>
       </c>
       <c r="C47">
-        <v>0.56000000000000005</v>
+        <v>0.36</v>
       </c>
       <c r="D47">
-        <v>1.7637190818786674E-2</v>
+        <f>ABS(B47 - C47)</f>
+        <v>8.0470895767211781E-3</v>
       </c>
       <c r="E47">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F47">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1.2515849999999999E-3</v>
+        <v>7.9372700000000004E-4</v>
       </c>
       <c r="H47">
-        <v>2.5402570000000002E-3</v>
+        <v>7.17759E-4</v>
       </c>
       <c r="I47">
-        <v>1.390084E-3</v>
+        <v>1.0738080000000001E-3</v>
       </c>
       <c r="J47">
-        <v>1.953228E-3</v>
+        <v>-8.0622599999999996E-6</v>
       </c>
       <c r="K47">
-        <v>1.8809810000000001E-3</v>
+        <v>1.2716660000000001E-3</v>
       </c>
       <c r="L47">
-        <v>1.429816E-3</v>
+        <v>8.5092999999999996E-4</v>
       </c>
       <c r="M47">
-        <v>2.3488210000000001E-3</v>
+        <v>1.03205E-4</v>
       </c>
       <c r="N47">
-        <v>1.096372E-3</v>
+        <v>1.4567880000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B48">
-        <v>0.16603812575340271</v>
+        <v>0.78837412595748901</v>
       </c>
       <c r="C48">
-        <v>0.17299999999999999</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="D48">
-        <v>6.9618742465972772E-3</v>
+        <f>ABS(B48 - C48)</f>
+        <v>7.6258740425110272E-3</v>
       </c>
       <c r="E48">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F48">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G48">
-        <v>2.841751E-3</v>
+        <v>1.58245E-3</v>
       </c>
       <c r="H48">
-        <v>1.167689E-3</v>
+        <v>1.8676750000000001E-3</v>
       </c>
       <c r="I48">
-        <v>1.2605520000000001E-3</v>
+        <v>2.7605020000000002E-3</v>
       </c>
       <c r="J48">
-        <v>1.9970029999999998E-3</v>
+        <v>3.323328E-3</v>
       </c>
       <c r="K48">
-        <v>2.3899139999999999E-3</v>
+        <v>2.8398910000000002E-3</v>
       </c>
       <c r="L48">
-        <v>1.9668440000000001E-3</v>
+        <v>1.835574E-3</v>
       </c>
       <c r="M48">
-        <v>1.2718E-3</v>
+        <v>1.6592289999999999E-3</v>
       </c>
       <c r="N48">
-        <v>1.1359790000000001E-3</v>
+        <v>2.494858E-3</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B49">
-        <v>0.58724796772003174</v>
+        <v>7.3472470045089722E-2</v>
       </c>
       <c r="C49">
-        <v>0.56000000000000005</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D49">
-        <v>2.7247967720031685E-2</v>
+        <f>ABS(B49 - C49)</f>
+        <v>7.5275299549102809E-3</v>
       </c>
       <c r="E49">
         <v>3.3459710000000001E-3</v>
@@ -2593,42 +2622,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G49">
-        <v>1.794316E-3</v>
+        <v>3.9732320000000002E-3</v>
       </c>
       <c r="H49">
-        <v>3.083611E-3</v>
+        <v>2.711003E-3</v>
       </c>
       <c r="I49">
-        <v>1.9338389999999999E-3</v>
+        <v>2.0064670000000001E-3</v>
       </c>
       <c r="J49">
-        <v>2.4929510000000002E-3</v>
+        <v>1.6129510000000001E-3</v>
       </c>
       <c r="K49">
-        <v>2.4239840000000001E-3</v>
+        <v>1.5968320000000001E-3</v>
       </c>
       <c r="L49">
-        <v>1.9660060000000002E-3</v>
+        <v>1.796434E-3</v>
       </c>
       <c r="M49">
-        <v>2.8892409999999999E-3</v>
+        <v>2.1186899999999999E-3</v>
       </c>
       <c r="N49">
-        <v>1.6305709999999999E-3</v>
+        <v>2.487249E-3</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B50">
-        <v>0.89156895875930786</v>
+        <v>0.80264878273010254</v>
       </c>
       <c r="C50">
-        <v>0.90600000000000003</v>
+        <v>0.81</v>
       </c>
       <c r="D50">
-        <v>1.4431041240692166E-2</v>
+        <f>ABS(B50 - C50)</f>
+        <v>7.3512172698975142E-3</v>
       </c>
       <c r="E50">
         <v>3.3459710000000001E-3</v>
@@ -2637,42 +2667,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G50">
-        <v>1.564616E-3</v>
+        <v>1.5792899999999999E-3</v>
       </c>
       <c r="H50">
-        <v>1.584731E-3</v>
+        <v>1.801441E-3</v>
       </c>
       <c r="I50">
-        <v>1.7115940000000001E-3</v>
+        <v>2.567012E-3</v>
       </c>
       <c r="J50">
-        <v>1.9422790000000001E-3</v>
+        <v>3.2204130000000001E-3</v>
       </c>
       <c r="K50">
-        <v>2.339355E-3</v>
+        <v>3.0589760000000001E-3</v>
       </c>
       <c r="L50">
-        <v>2.7435699999999999E-3</v>
+        <v>2.1566739999999999E-3</v>
       </c>
       <c r="M50">
-        <v>3.0973369999999999E-3</v>
+        <v>1.5855520000000001E-3</v>
       </c>
       <c r="N50">
-        <v>3.2779860000000001E-3</v>
+        <v>1.9907459999999998E-3</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B51">
-        <v>0.49517691135406489</v>
+        <v>0.16603812575340271</v>
       </c>
       <c r="C51">
-        <v>0.46600000000000003</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D51">
-        <v>2.9176911354064861E-2</v>
+        <f>ABS(B51 - C51)</f>
+        <v>6.9618742465972772E-3</v>
       </c>
       <c r="E51">
         <v>3.3459710000000001E-3</v>
@@ -2681,130 +2712,133 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G51">
-        <v>1.467105E-3</v>
+        <v>2.841751E-3</v>
       </c>
       <c r="H51">
-        <v>2.4349089999999999E-3</v>
+        <v>1.167689E-3</v>
       </c>
       <c r="I51">
-        <v>1.128488E-3</v>
+        <v>1.2605520000000001E-3</v>
       </c>
       <c r="J51">
-        <v>2.318868E-3</v>
+        <v>1.9970029999999998E-3</v>
       </c>
       <c r="K51">
-        <v>1.3813899999999999E-3</v>
+        <v>2.3899139999999999E-3</v>
       </c>
       <c r="L51">
-        <v>2.0597969999999999E-3</v>
+        <v>1.9668440000000001E-3</v>
       </c>
       <c r="M51">
-        <v>1.655E-3</v>
+        <v>1.2718E-3</v>
       </c>
       <c r="N51">
-        <v>1.770226E-3</v>
+        <v>1.1359790000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.32207795977592468</v>
+        <v>0.16605094075202939</v>
       </c>
       <c r="C52">
-        <v>0.32500000000000001</v>
+        <v>0.17299999999999999</v>
       </c>
       <c r="D52">
-        <v>2.9220402240753285E-3</v>
+        <f>ABS(B52 - C52)</f>
+        <v>6.9490592479705959E-3</v>
       </c>
       <c r="E52">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F52">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>2.533198E-3</v>
+        <v>1.7614799999999999E-3</v>
       </c>
       <c r="H52">
-        <v>2.0558299999999998E-3</v>
+        <v>1.07638E-4</v>
       </c>
       <c r="I52">
-        <v>2.8734350000000001E-3</v>
+        <v>1.8912000000000001E-4</v>
       </c>
       <c r="J52">
-        <v>1.7488040000000001E-3</v>
+        <v>9.1463099999999995E-4</v>
       </c>
       <c r="K52">
-        <v>2.1942260000000001E-3</v>
+        <v>1.305886E-3</v>
       </c>
       <c r="L52">
-        <v>3.0718609999999999E-3</v>
+        <v>8.9108000000000004E-4</v>
       </c>
       <c r="M52">
-        <v>1.861903E-3</v>
+        <v>1.9330399999999999E-4</v>
       </c>
       <c r="N52">
-        <v>2.065173E-3</v>
+        <v>4.4169999999999999E-5</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.69349664449691772</v>
+        <v>0.86921340227127075</v>
       </c>
       <c r="C53">
-        <v>0.68700000000000006</v>
+        <v>0.876</v>
       </c>
       <c r="D53">
-        <v>6.4966444969176695E-3</v>
+        <f>ABS(B53 - C53)</f>
+        <v>6.7865977287292489E-3</v>
       </c>
       <c r="E53">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F53">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G53">
-        <v>1.6475839999999999E-3</v>
+        <v>1.038473E-3</v>
       </c>
       <c r="H53">
-        <v>2.5320579999999998E-3</v>
+        <v>1.0938759999999999E-3</v>
       </c>
       <c r="I53">
-        <v>3.287805E-3</v>
+        <v>1.3732289999999999E-3</v>
       </c>
       <c r="J53">
-        <v>1.9615710000000001E-3</v>
+        <v>1.8495300000000001E-3</v>
       </c>
       <c r="K53">
-        <v>1.950182E-3</v>
+        <v>2.4251699999999999E-3</v>
       </c>
       <c r="L53">
-        <v>3.0739600000000001E-3</v>
+        <v>2.742005E-3</v>
       </c>
       <c r="M53">
-        <v>2.181765E-3</v>
+        <v>2.66804E-3</v>
       </c>
       <c r="N53">
-        <v>1.7558230000000001E-3</v>
+        <v>2.2191369999999999E-3</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54">
-        <v>0.25493916869163508</v>
+        <v>0.69349664449691772</v>
       </c>
       <c r="C54">
-        <v>0.255</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="D54">
-        <v>6.0831308364928116E-5</v>
+        <f>ABS(B54 - C54)</f>
+        <v>6.4966444969176695E-3</v>
       </c>
       <c r="E54">
         <v>3.3459710000000001E-3</v>
@@ -2813,86 +2847,88 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G54">
-        <v>2.8423860000000001E-3</v>
+        <v>1.6475839999999999E-3</v>
       </c>
       <c r="H54">
-        <v>1.636719E-3</v>
+        <v>2.5320579999999998E-3</v>
       </c>
       <c r="I54">
-        <v>2.6113479999999999E-3</v>
+        <v>3.287805E-3</v>
       </c>
       <c r="J54">
-        <v>2.6560860000000002E-3</v>
+        <v>1.9615710000000001E-3</v>
       </c>
       <c r="K54">
-        <v>1.7215279999999999E-3</v>
+        <v>1.950182E-3</v>
       </c>
       <c r="L54">
-        <v>1.847359E-3</v>
+        <v>3.0739600000000001E-3</v>
       </c>
       <c r="M54">
-        <v>2.854119E-3</v>
+        <v>2.181765E-3</v>
       </c>
       <c r="N54">
-        <v>2.6503630000000002E-3</v>
+        <v>1.7558230000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>7.0000097155570984E-2</v>
+        <v>0.75351065397262573</v>
       </c>
       <c r="C55">
-        <v>8.1000000000000003E-2</v>
+        <v>0.76</v>
       </c>
       <c r="D55">
-        <v>1.0999902844429019E-2</v>
+        <f>ABS(B55 - C55)</f>
+        <v>6.4893460273742765E-3</v>
       </c>
       <c r="E55">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G55">
-        <v>2.374148E-3</v>
+        <v>1.06825E-3</v>
       </c>
       <c r="H55">
-        <v>1.1361399999999999E-3</v>
+        <v>1.525761E-3</v>
       </c>
       <c r="I55">
-        <v>4.3773E-4</v>
+        <v>2.5597710000000002E-3</v>
       </c>
       <c r="J55">
-        <v>4.8497900000000002E-5</v>
+        <v>2.5776330000000002E-3</v>
       </c>
       <c r="K55">
-        <v>3.4390700000000003E-5</v>
+        <v>1.4979430000000001E-3</v>
       </c>
       <c r="L55">
-        <v>2.12597E-4</v>
+        <v>1.1189640000000001E-3</v>
       </c>
       <c r="M55">
-        <v>5.3994399999999999E-4</v>
+        <v>2.0728909999999999E-3</v>
       </c>
       <c r="N55">
-        <v>8.9895399999999999E-4</v>
+        <v>2.523707E-3</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>0.30697709321975708</v>
+        <v>0.81374448537826538</v>
       </c>
       <c r="C56">
-        <v>0.28999999999999998</v>
+        <v>0.82</v>
       </c>
       <c r="D56">
-        <v>1.69770932197571E-2</v>
+        <f>ABS(B56 - C56)</f>
+        <v>6.2555146217345703E-3</v>
       </c>
       <c r="E56">
         <v>3.3459710000000001E-3</v>
@@ -2901,130 +2937,133 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G56">
-        <v>2.6702729999999999E-3</v>
+        <v>1.5778540000000001E-3</v>
       </c>
       <c r="H56">
-        <v>1.800935E-3</v>
+        <v>1.7694710000000001E-3</v>
       </c>
       <c r="I56">
-        <v>2.8387410000000001E-3</v>
+        <v>2.4759750000000001E-3</v>
       </c>
       <c r="J56">
-        <v>2.1886520000000001E-3</v>
+        <v>3.1879500000000002E-3</v>
       </c>
       <c r="K56">
-        <v>1.6451969999999999E-3</v>
+        <v>3.2338940000000002E-3</v>
       </c>
       <c r="L56">
-        <v>2.7441560000000002E-3</v>
+        <v>2.4519149999999998E-3</v>
       </c>
       <c r="M56">
-        <v>2.8097460000000001E-3</v>
+        <v>1.686328E-3</v>
       </c>
       <c r="N56">
-        <v>1.674551E-3</v>
+        <v>1.732293E-3</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B57">
-        <v>0.16605094075202939</v>
+        <v>6.7176520824432373E-2</v>
       </c>
       <c r="C57">
-        <v>0.17299999999999999</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D57">
-        <v>6.9490592479705959E-3</v>
+        <f>ABS(B57 - C57)</f>
+        <v>5.8234791755676224E-3</v>
       </c>
       <c r="E57">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G57">
-        <v>1.7614799999999999E-3</v>
+        <v>4.0474409999999997E-3</v>
       </c>
       <c r="H57">
-        <v>1.07638E-4</v>
+        <v>2.8590080000000001E-3</v>
       </c>
       <c r="I57">
-        <v>1.8912000000000001E-4</v>
+        <v>2.1696469999999998E-3</v>
       </c>
       <c r="J57">
-        <v>9.1463099999999995E-4</v>
+        <v>1.7271089999999999E-3</v>
       </c>
       <c r="K57">
-        <v>1.305886E-3</v>
+        <v>1.6079530000000001E-3</v>
       </c>
       <c r="L57">
-        <v>8.9108000000000004E-4</v>
+        <v>1.6935590000000001E-3</v>
       </c>
       <c r="M57">
-        <v>1.9330399999999999E-4</v>
+        <v>1.94534E-3</v>
       </c>
       <c r="N57">
-        <v>4.4169999999999999E-5</v>
+        <v>2.2822139999999999E-3</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B58">
-        <v>0.86921340227127075</v>
+        <v>0.90043246746063232</v>
       </c>
       <c r="C58">
-        <v>0.876</v>
+        <v>0.90600000000000003</v>
       </c>
       <c r="D58">
-        <v>6.7865977287292489E-3</v>
+        <f>ABS(B58 - C58)</f>
+        <v>5.5675325393677033E-3</v>
       </c>
       <c r="E58">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F58">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1.038473E-3</v>
+        <v>-1.07211E-5</v>
       </c>
       <c r="H58">
-        <v>1.0938759999999999E-3</v>
+        <v>4.9438500000000001E-6</v>
       </c>
       <c r="I58">
-        <v>1.3732289999999999E-3</v>
+        <v>1.3124799999999999E-4</v>
       </c>
       <c r="J58">
-        <v>1.8495300000000001E-3</v>
+        <v>3.6234899999999998E-4</v>
       </c>
       <c r="K58">
-        <v>2.4251699999999999E-3</v>
+        <v>7.6076900000000001E-4</v>
       </c>
       <c r="L58">
-        <v>2.742005E-3</v>
+        <v>1.1666269999999999E-3</v>
       </c>
       <c r="M58">
-        <v>2.66804E-3</v>
+        <v>1.521515E-3</v>
       </c>
       <c r="N58">
-        <v>2.2191369999999999E-3</v>
+        <v>1.702631E-3</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B59">
-        <v>0.69378966093063354</v>
+        <v>0.51071679592132568</v>
       </c>
       <c r="C59">
-        <v>0.69</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D59">
-        <v>3.7896609306335982E-3</v>
+        <f>ABS(B59 - C59)</f>
+        <v>5.2832040786743306E-3</v>
       </c>
       <c r="E59">
         <v>3.3459710000000001E-3</v>
@@ -3033,130 +3072,133 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G59">
-        <v>1.6380209999999999E-3</v>
+        <v>1.8847029999999999E-3</v>
       </c>
       <c r="H59">
-        <v>2.4678149999999999E-3</v>
+        <v>3.1074079999999999E-3</v>
       </c>
       <c r="I59">
-        <v>3.2722110000000001E-3</v>
+        <v>1.6206409999999999E-3</v>
       </c>
       <c r="J59">
-        <v>1.9710869999999998E-3</v>
+        <v>3.0099929999999999E-3</v>
       </c>
       <c r="K59">
-        <v>1.8765310000000001E-3</v>
+        <v>1.6692580000000001E-3</v>
       </c>
       <c r="L59">
-        <v>3.0321559999999998E-3</v>
+        <v>2.952508E-3</v>
       </c>
       <c r="M59">
-        <v>2.2478229999999999E-3</v>
+        <v>1.7315130000000001E-3</v>
       </c>
       <c r="N59">
-        <v>1.67567E-3</v>
+        <v>2.875973E-3</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B60">
-        <v>0.26410001516342158</v>
+        <v>0.59528058767318726</v>
       </c>
       <c r="C60">
-        <v>0.255</v>
+        <v>0.59</v>
       </c>
       <c r="D60">
-        <v>9.1000151634215709E-3</v>
+        <f>ABS(B60 - C60)</f>
+        <v>5.2805876731872869E-3</v>
       </c>
       <c r="E60">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G60">
-        <v>1.292694E-3</v>
+        <v>1.7520400000000001E-3</v>
       </c>
       <c r="H60">
-        <v>8.30721E-5</v>
+        <v>3.0341410000000002E-3</v>
       </c>
       <c r="I60">
-        <v>1.051143E-3</v>
+        <v>2.2960440000000001E-3</v>
       </c>
       <c r="J60">
-        <v>1.115759E-3</v>
+        <v>2.022378E-3</v>
       </c>
       <c r="K60">
-        <v>1.78068E-4</v>
+        <v>2.9734919999999999E-3</v>
       </c>
       <c r="L60">
-        <v>3.1999200000000001E-4</v>
+        <v>1.579099E-3</v>
       </c>
       <c r="M60">
-        <v>1.3686060000000001E-3</v>
+        <v>2.9927199999999999E-3</v>
       </c>
       <c r="N60">
-        <v>1.180501E-3</v>
+        <v>2.005256E-3</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B61">
-        <v>0.87768727540969849</v>
+        <v>0.65477609634399414</v>
       </c>
       <c r="C61">
-        <v>0.89600000000000002</v>
+        <v>0.66</v>
       </c>
       <c r="D61">
-        <v>1.8312724590301532E-2</v>
+        <f>ABS(B61 - C61)</f>
+        <v>5.2239036560058905E-3</v>
       </c>
       <c r="E61">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F61">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1.565421E-3</v>
+        <v>8.2470099999999995E-5</v>
       </c>
       <c r="H61">
-        <v>1.594736E-3</v>
+        <v>1.08073E-3</v>
       </c>
       <c r="I61">
-        <v>1.763674E-3</v>
+        <v>1.5107530000000001E-3</v>
       </c>
       <c r="J61">
-        <v>2.071828E-3</v>
+        <v>4.9378400000000001E-5</v>
       </c>
       <c r="K61">
-        <v>2.5479980000000001E-3</v>
+        <v>8.9862700000000004E-4</v>
       </c>
       <c r="L61">
-        <v>2.9751600000000001E-3</v>
+        <v>1.2728990000000001E-3</v>
       </c>
       <c r="M61">
-        <v>3.2495990000000002E-3</v>
+        <v>1.7238600000000001E-5</v>
       </c>
       <c r="N61">
-        <v>3.2482819999999999E-3</v>
+        <v>1.0025940000000001E-3</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>0.67380541563034058</v>
+        <v>0.2599952220916748</v>
       </c>
       <c r="C62">
-        <v>0.68700000000000006</v>
+        <v>0.255</v>
       </c>
       <c r="D62">
-        <v>1.3194584369659479E-2</v>
+        <f>ABS(B62 - C62)</f>
+        <v>4.9952220916748002E-3</v>
       </c>
       <c r="E62">
         <v>3.3459710000000001E-3</v>
@@ -3165,42 +3207,43 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G62">
-        <v>1.098225E-3</v>
+        <v>2.3155680000000001E-3</v>
       </c>
       <c r="H62">
-        <v>1.9559769999999998E-3</v>
+        <v>1.109358E-3</v>
       </c>
       <c r="I62">
-        <v>2.7203459999999998E-3</v>
+        <v>2.086517E-3</v>
       </c>
       <c r="J62">
-        <v>1.4023040000000001E-3</v>
+        <v>2.135082E-3</v>
       </c>
       <c r="K62">
-        <v>1.393743E-3</v>
+        <v>1.2071180000000001E-3</v>
       </c>
       <c r="L62">
-        <v>2.513323E-3</v>
+        <v>1.3703179999999999E-3</v>
       </c>
       <c r="M62">
-        <v>1.623659E-3</v>
+        <v>2.4096019999999998E-3</v>
       </c>
       <c r="N62">
-        <v>1.2105849999999999E-3</v>
+        <v>2.1918739999999999E-3</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>0.35195291042327881</v>
+        <v>0.16003707051277161</v>
       </c>
       <c r="C63">
-        <v>0.36</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D63">
-        <v>8.0470895767211781E-3</v>
+        <f>ABS(B63 - C63)</f>
+        <v>4.9629294872284013E-3</v>
       </c>
       <c r="E63">
         <v>3.3459710000000001E-3</v>
@@ -3209,306 +3252,313 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>7.9372700000000004E-4</v>
+        <v>1.8177060000000001E-3</v>
       </c>
       <c r="H63">
-        <v>7.17759E-4</v>
+        <v>1.6078500000000001E-4</v>
       </c>
       <c r="I63">
-        <v>1.0738080000000001E-3</v>
+        <v>1.35143E-4</v>
       </c>
       <c r="J63">
-        <v>-8.0622599999999996E-6</v>
+        <v>8.0365099999999995E-4</v>
       </c>
       <c r="K63">
-        <v>1.2716660000000001E-3</v>
+        <v>1.3088799999999999E-3</v>
       </c>
       <c r="L63">
-        <v>8.5092999999999996E-4</v>
+        <v>1.0588069999999999E-3</v>
       </c>
       <c r="M63">
-        <v>1.03205E-4</v>
+        <v>3.9642200000000001E-4</v>
       </c>
       <c r="N63">
-        <v>1.4567880000000001E-3</v>
+        <v>3.0571100000000003E-5</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="B64">
-        <v>0.37553888559341431</v>
+        <v>0.48469537496566772</v>
       </c>
       <c r="C64">
-        <v>0.34699999999999998</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D64">
-        <v>2.8538885593414332E-2</v>
+        <f>ABS(B64 - C64)</f>
+        <v>4.3046250343322656E-3</v>
       </c>
       <c r="E64">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F64">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G64">
-        <v>1.9112510000000001E-3</v>
+        <v>1.9495929999999999E-3</v>
       </c>
       <c r="H64">
-        <v>1.6810390000000001E-3</v>
+        <v>3.0502649999999999E-3</v>
       </c>
       <c r="I64">
-        <v>2.2190439999999999E-3</v>
+        <v>1.5916120000000001E-3</v>
       </c>
       <c r="J64">
-        <v>1.064686E-3</v>
+        <v>3.0231530000000002E-3</v>
       </c>
       <c r="K64">
-        <v>2.11188E-3</v>
+        <v>1.6279949999999999E-3</v>
       </c>
       <c r="L64">
-        <v>2.1935290000000001E-3</v>
+        <v>2.987787E-3</v>
       </c>
       <c r="M64">
-        <v>1.0721629999999999E-3</v>
+        <v>1.640215E-3</v>
       </c>
       <c r="N64">
-        <v>2.242384E-3</v>
+        <v>2.9416260000000001E-3</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B65">
-        <v>0.51896291971206665</v>
+        <v>0.65594387054443359</v>
       </c>
       <c r="C65">
-        <v>0.51600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="D65">
-        <v>2.9629197120666362E-3</v>
+        <f>ABS(B65 - C65)</f>
+        <v>4.0561294555664373E-3</v>
       </c>
       <c r="E65">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G65">
-        <v>3.06712E-4</v>
+        <v>1.663103E-3</v>
       </c>
       <c r="H65">
-        <v>1.517025E-3</v>
+        <v>2.65468E-3</v>
       </c>
       <c r="I65">
-        <v>3.7748199999999999E-5</v>
+        <v>3.0884480000000001E-3</v>
       </c>
       <c r="J65">
-        <v>1.420466E-3</v>
+        <v>1.633032E-3</v>
       </c>
       <c r="K65">
-        <v>8.2420200000000001E-5</v>
+        <v>2.4720319999999999E-3</v>
       </c>
       <c r="L65">
-        <v>1.365228E-3</v>
+        <v>2.8564049999999998E-3</v>
       </c>
       <c r="M65">
-        <v>1.4023400000000001E-4</v>
+        <v>1.602175E-3</v>
       </c>
       <c r="N65">
-        <v>1.292699E-3</v>
+        <v>2.5717499999999998E-3</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B66">
-        <v>0.29980921745300287</v>
+        <v>0.46212899684906011</v>
       </c>
       <c r="C66">
-        <v>0.28999999999999998</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="D66">
-        <v>9.8092174530028942E-3</v>
+        <f>ABS(B66 - C66)</f>
+        <v>3.8710031509399112E-3</v>
       </c>
       <c r="E66">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G66">
-        <v>1.0985999999999999E-3</v>
+        <v>2.0117939999999999E-3</v>
       </c>
       <c r="H66">
-        <v>2.18798E-4</v>
+        <v>2.979055E-3</v>
       </c>
       <c r="I66">
-        <v>1.2629780000000001E-3</v>
+        <v>1.669944E-3</v>
       </c>
       <c r="J66">
-        <v>6.1846600000000002E-4</v>
+        <v>2.8619930000000002E-3</v>
       </c>
       <c r="K66">
-        <v>5.8366299999999997E-5</v>
+        <v>1.9190399999999999E-3</v>
       </c>
       <c r="L66">
-        <v>1.1553959999999999E-3</v>
+        <v>2.6019620000000002E-3</v>
       </c>
       <c r="M66">
-        <v>1.245997E-3</v>
+        <v>2.1880390000000001E-3</v>
       </c>
       <c r="N66">
-        <v>1.01106E-4</v>
+        <v>2.3108339999999999E-3</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B67">
-        <v>0.35045880079269409</v>
+        <v>0.69378966093063354</v>
       </c>
       <c r="C67">
-        <v>0.34699999999999998</v>
+        <v>0.69</v>
       </c>
       <c r="D67">
-        <v>3.4588007926941167E-3</v>
+        <f>ABS(B67 - C67)</f>
+        <v>3.7896609306335982E-3</v>
       </c>
       <c r="E67">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G67">
-        <v>8.4112399999999995E-4</v>
+        <v>1.6380209999999999E-3</v>
       </c>
       <c r="H67">
-        <v>6.2199200000000003E-4</v>
+        <v>2.4678149999999999E-3</v>
       </c>
       <c r="I67">
-        <v>1.1587920000000001E-3</v>
+        <v>3.2722110000000001E-3</v>
       </c>
       <c r="J67">
-        <v>8.3249900000000001E-6</v>
+        <v>1.9710869999999998E-3</v>
       </c>
       <c r="K67">
-        <v>1.0274220000000001E-3</v>
+        <v>1.8765310000000001E-3</v>
       </c>
       <c r="L67">
-        <v>1.1387319999999999E-3</v>
+        <v>3.0321559999999998E-3</v>
       </c>
       <c r="M67">
-        <v>-1.56912E-5</v>
+        <v>2.2478229999999999E-3</v>
       </c>
       <c r="N67">
-        <v>1.147138E-3</v>
+        <v>1.67567E-3</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68">
-        <v>0.42642706632614141</v>
+        <v>0.35045880079269409</v>
       </c>
       <c r="C68">
-        <v>0.41399999999999998</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="D68">
-        <v>1.2427066326141434E-2</v>
+        <f>ABS(B68 - C68)</f>
+        <v>3.4588007926941167E-3</v>
       </c>
       <c r="E68">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F68">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1.633691E-3</v>
+        <v>8.4112399999999995E-4</v>
       </c>
       <c r="H68">
-        <v>2.1613219999999998E-3</v>
+        <v>6.2199200000000003E-4</v>
       </c>
       <c r="I68">
-        <v>1.5794279999999999E-3</v>
+        <v>1.1587920000000001E-3</v>
       </c>
       <c r="J68">
-        <v>1.549789E-3</v>
+        <v>8.3249900000000001E-6</v>
       </c>
       <c r="K68">
-        <v>2.3844999999999999E-3</v>
+        <v>1.0274220000000001E-3</v>
       </c>
       <c r="L68">
-        <v>1.056509E-3</v>
+        <v>1.1387319999999999E-3</v>
       </c>
       <c r="M68">
-        <v>2.4823839999999998E-3</v>
+        <v>-1.56912E-5</v>
       </c>
       <c r="N68">
-        <v>1.3582620000000001E-3</v>
+        <v>1.147138E-3</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B69">
-        <v>0.80264878273010254</v>
+        <v>0.1165687441825867</v>
       </c>
       <c r="C69">
-        <v>0.81</v>
+        <v>0.12</v>
       </c>
       <c r="D69">
-        <v>7.3512172698975142E-3</v>
+        <f>ABS(B69 - C69)</f>
+        <v>3.4312558174132979E-3</v>
       </c>
       <c r="E69">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F69">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>1.5792899999999999E-3</v>
+        <v>2.1137869999999998E-3</v>
       </c>
       <c r="H69">
-        <v>1.801441E-3</v>
+        <v>5.6239799999999998E-4</v>
       </c>
       <c r="I69">
-        <v>2.567012E-3</v>
+        <v>3.0508999999999999E-5</v>
       </c>
       <c r="J69">
-        <v>3.2204130000000001E-3</v>
+        <v>1.2902399999999999E-4</v>
       </c>
       <c r="K69">
-        <v>3.0589760000000001E-3</v>
+        <v>6.4474900000000002E-4</v>
       </c>
       <c r="L69">
-        <v>2.1566739999999999E-3</v>
+        <v>1.11491E-3</v>
       </c>
       <c r="M69">
-        <v>1.5855520000000001E-3</v>
+        <v>1.2988819999999999E-3</v>
       </c>
       <c r="N69">
-        <v>1.9907459999999998E-3</v>
+        <v>1.0971329999999999E-3</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B70">
-        <v>0.96479284763336182</v>
+        <v>0.29297071695327759</v>
       </c>
       <c r="C70">
-        <v>0.98</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="D70">
-        <v>1.5207152366638166E-2</v>
+        <f>ABS(B70 - C70)</f>
+        <v>2.9707169532776079E-3</v>
       </c>
       <c r="E70">
         <v>3.3459710000000001E-3</v>
@@ -3517,174 +3567,178 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G70">
-        <v>1.0324100000000001E-3</v>
+        <v>2.1372779999999998E-3</v>
       </c>
       <c r="H70">
-        <v>1.024257E-3</v>
+        <v>1.2575189999999999E-3</v>
       </c>
       <c r="I70">
-        <v>1.0433160000000001E-3</v>
+        <v>2.306368E-3</v>
       </c>
       <c r="J70">
-        <v>1.031887E-3</v>
+        <v>1.6546309999999999E-3</v>
       </c>
       <c r="K70">
-        <v>1.060456E-3</v>
+        <v>1.102408E-3</v>
       </c>
       <c r="L70">
-        <v>1.048174E-3</v>
+        <v>2.2105620000000001E-3</v>
       </c>
       <c r="M70">
-        <v>1.058448E-3</v>
+        <v>2.286649E-3</v>
       </c>
       <c r="N70">
-        <v>1.0848120000000001E-3</v>
+        <v>1.140809E-3</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="B71">
-        <v>0.90043246746063232</v>
+        <v>7.596433162689209E-2</v>
       </c>
       <c r="C71">
-        <v>0.90600000000000003</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="D71">
-        <v>5.5675325393677033E-3</v>
+        <f>ABS(B71 - C71)</f>
+        <v>2.9643316268920944E-3</v>
       </c>
       <c r="E71">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G71">
-        <v>-1.07211E-5</v>
+        <v>3.5349230000000001E-3</v>
       </c>
       <c r="H71">
-        <v>4.9438500000000001E-6</v>
+        <v>2.3394620000000001E-3</v>
       </c>
       <c r="I71">
-        <v>1.3124799999999999E-4</v>
+        <v>1.6453699999999999E-3</v>
       </c>
       <c r="J71">
-        <v>3.6234899999999998E-4</v>
+        <v>1.1973330000000001E-3</v>
       </c>
       <c r="K71">
-        <v>7.6076900000000001E-4</v>
+        <v>1.0774059999999999E-3</v>
       </c>
       <c r="L71">
-        <v>1.1666269999999999E-3</v>
+        <v>1.1487859999999999E-3</v>
       </c>
       <c r="M71">
-        <v>1.521515E-3</v>
+        <v>1.410981E-3</v>
       </c>
       <c r="N71">
-        <v>1.702631E-3</v>
+        <v>1.754149E-3</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B72">
-        <v>0.64601165056228638</v>
+        <v>0.51896291971206665</v>
       </c>
       <c r="C72">
-        <v>0.66</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D72">
-        <v>1.3988349437713654E-2</v>
+        <f>ABS(B72 - C72)</f>
+        <v>2.9629197120666362E-3</v>
       </c>
       <c r="E72">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F72">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>1.119047E-3</v>
+        <v>3.06712E-4</v>
       </c>
       <c r="H72">
-        <v>2.1094730000000002E-3</v>
+        <v>1.517025E-3</v>
       </c>
       <c r="I72">
-        <v>2.5397729999999999E-3</v>
+        <v>3.7748199999999999E-5</v>
       </c>
       <c r="J72">
-        <v>1.093403E-3</v>
+        <v>1.420466E-3</v>
       </c>
       <c r="K72">
-        <v>1.932666E-3</v>
+        <v>8.2420200000000001E-5</v>
       </c>
       <c r="L72">
-        <v>2.3107449999999999E-3</v>
+        <v>1.365228E-3</v>
       </c>
       <c r="M72">
-        <v>1.0666619999999999E-3</v>
+        <v>1.4023400000000001E-4</v>
       </c>
       <c r="N72">
-        <v>2.0376069999999999E-3</v>
+        <v>1.292699E-3</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B73">
-        <v>0.31683400273323059</v>
+        <v>0.32207795977592468</v>
       </c>
       <c r="C73">
         <v>0.32500000000000001</v>
       </c>
       <c r="D73">
-        <v>8.1659972667694203E-3</v>
+        <f>ABS(B73 - C73)</f>
+        <v>2.9220402240753285E-3</v>
       </c>
       <c r="E73">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G73">
-        <v>9.5751199999999999E-4</v>
+        <v>2.533198E-3</v>
       </c>
       <c r="H73">
-        <v>4.7555399999999999E-4</v>
+        <v>2.0558299999999998E-3</v>
       </c>
       <c r="I73">
-        <v>1.290266E-3</v>
+        <v>2.8734350000000001E-3</v>
       </c>
       <c r="J73">
-        <v>1.77491E-4</v>
+        <v>1.7488040000000001E-3</v>
       </c>
       <c r="K73">
-        <v>5.9929199999999997E-4</v>
+        <v>2.1942260000000001E-3</v>
       </c>
       <c r="L73">
-        <v>1.486862E-3</v>
+        <v>3.0718609999999999E-3</v>
       </c>
       <c r="M73">
-        <v>2.9353099999999998E-4</v>
+        <v>1.861903E-3</v>
       </c>
       <c r="N73">
-        <v>4.6819500000000003E-4</v>
+        <v>2.065173E-3</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="B74">
-        <v>0.95971131324768066</v>
+        <v>0.76274675130844116</v>
       </c>
       <c r="C74">
-        <v>0.98</v>
+        <v>0.76</v>
       </c>
       <c r="D74">
-        <v>2.0288686752319318E-2</v>
+        <f>ABS(B74 - C74)</f>
+        <v>2.7467513084411532E-3</v>
       </c>
       <c r="E74">
         <v>3.3459710000000001E-3</v>
@@ -3693,262 +3747,268 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G74">
-        <v>1.5618870000000001E-3</v>
+        <v>1.594778E-3</v>
       </c>
       <c r="H74">
-        <v>1.556059E-3</v>
+        <v>2.0362259999999999E-3</v>
       </c>
       <c r="I74">
-        <v>1.5746379999999999E-3</v>
+        <v>3.0788590000000002E-3</v>
       </c>
       <c r="J74">
-        <v>1.562538E-3</v>
+        <v>3.0873239999999998E-3</v>
       </c>
       <c r="K74">
-        <v>1.590244E-3</v>
+        <v>2.015354E-3</v>
       </c>
       <c r="L74">
-        <v>1.576938E-3</v>
+        <v>1.643018E-3</v>
       </c>
       <c r="M74">
-        <v>1.5859839999999999E-3</v>
+        <v>2.5868190000000002E-3</v>
       </c>
       <c r="N74">
-        <v>1.610939E-3</v>
+        <v>3.0290629999999998E-3</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B75">
-        <v>0.78837412595748901</v>
+        <v>5.3413316607475281E-2</v>
       </c>
       <c r="C75">
-        <v>0.79600000000000004</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D75">
-        <v>7.6258740425110272E-3</v>
+        <f>ABS(B75 - C75)</f>
+        <v>2.5866833925247204E-3</v>
       </c>
       <c r="E75">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F75">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>1.58245E-3</v>
+        <v>2.5521760000000002E-3</v>
       </c>
       <c r="H75">
-        <v>1.8676750000000001E-3</v>
+        <v>1.6138350000000001E-3</v>
       </c>
       <c r="I75">
-        <v>2.7605020000000002E-3</v>
+        <v>9.7601999999999997E-4</v>
       </c>
       <c r="J75">
-        <v>3.323328E-3</v>
+        <v>4.6964400000000002E-4</v>
       </c>
       <c r="K75">
-        <v>2.8398910000000002E-3</v>
+        <v>1.7945099999999999E-4</v>
       </c>
       <c r="L75">
-        <v>1.835574E-3</v>
+        <v>1.15464E-5</v>
       </c>
       <c r="M75">
-        <v>1.6592289999999999E-3</v>
+        <v>9.9827899999999997E-6</v>
       </c>
       <c r="N75">
-        <v>2.494858E-3</v>
+        <v>1.4078800000000001E-4</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B76">
-        <v>0.78258579969406128</v>
+        <v>0.2125107944011688</v>
       </c>
       <c r="C76">
-        <v>0.79600000000000004</v>
+        <v>0.21</v>
       </c>
       <c r="D76">
-        <v>1.3414200305938762E-2</v>
+        <f>ABS(B76 - C76)</f>
+        <v>2.5107944011688033E-3</v>
       </c>
       <c r="E76">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F76">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>1.0490370000000001E-3</v>
+        <v>1.562978E-3</v>
       </c>
       <c r="H76">
-        <v>1.3285580000000001E-3</v>
+        <v>-8.9638599999999996E-6</v>
       </c>
       <c r="I76">
-        <v>2.2011130000000002E-3</v>
+        <v>5.8158099999999996E-4</v>
       </c>
       <c r="J76">
-        <v>2.7429469999999999E-3</v>
+        <v>1.2982650000000001E-3</v>
       </c>
       <c r="K76">
-        <v>2.272109E-3</v>
+        <v>9.5641400000000005E-4</v>
       </c>
       <c r="L76">
-        <v>1.2989799999999999E-3</v>
+        <v>1.20505E-4</v>
       </c>
       <c r="M76">
-        <v>1.129419E-3</v>
+        <v>1.8397699999999999E-4</v>
       </c>
       <c r="N76">
-        <v>1.942928E-3</v>
+        <v>1.115752E-3</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="B77">
-        <v>0.80821633338928223</v>
+        <v>0.2119668573141098</v>
       </c>
       <c r="C77">
-        <v>0.82</v>
+        <v>0.21</v>
       </c>
       <c r="D77">
-        <v>1.1783666610717725E-2</v>
+        <f>ABS(B77 - C77)</f>
+        <v>1.96685731410981E-3</v>
       </c>
       <c r="E77">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G77">
-        <v>-2.3471700000000002E-6</v>
+        <v>3.1081199999999998E-3</v>
       </c>
       <c r="H77">
-        <v>1.84759E-4</v>
+        <v>1.570281E-3</v>
       </c>
       <c r="I77">
-        <v>8.7353799999999998E-4</v>
+        <v>2.1574239999999998E-3</v>
       </c>
       <c r="J77">
-        <v>1.565571E-3</v>
+        <v>2.8549840000000001E-3</v>
       </c>
       <c r="K77">
-        <v>1.607748E-3</v>
+        <v>2.5081700000000001E-3</v>
       </c>
       <c r="L77">
-        <v>8.4265200000000005E-4</v>
+        <v>1.69221E-3</v>
       </c>
       <c r="M77">
-        <v>9.8060199999999993E-5</v>
+        <v>1.7756779999999999E-3</v>
       </c>
       <c r="N77">
-        <v>1.48412E-4</v>
+        <v>2.6955519999999999E-3</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B78">
-        <v>5.530942976474762E-2</v>
+        <v>0.68890184164047241</v>
       </c>
       <c r="C78">
-        <v>5.6000000000000001E-2</v>
+        <v>0.68700000000000006</v>
       </c>
       <c r="D78">
-        <v>6.9057023525238154E-4</v>
+        <f>ABS(B78 - C78)</f>
+        <v>1.901841640472357E-3</v>
       </c>
       <c r="E78">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F78">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G78">
-        <v>4.1304820000000004E-3</v>
+        <v>9.6497599999999996E-5</v>
       </c>
       <c r="H78">
-        <v>3.1811719999999999E-3</v>
+        <v>9.4294699999999997E-4</v>
       </c>
       <c r="I78">
-        <v>2.5392909999999999E-3</v>
+        <v>1.70218E-3</v>
       </c>
       <c r="J78">
-        <v>2.0338019999999999E-3</v>
+        <v>3.6509800000000001E-4</v>
       </c>
       <c r="K78">
-        <v>1.748941E-3</v>
+        <v>3.7229299999999999E-4</v>
       </c>
       <c r="L78">
-        <v>1.5899169999999999E-3</v>
+        <v>1.48715E-3</v>
       </c>
       <c r="M78">
-        <v>1.599156E-3</v>
+        <v>5.9425099999999996E-4</v>
       </c>
       <c r="N78">
-        <v>1.740716E-3</v>
+        <v>1.81657E-4</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.23474982380866999</v>
+        <v>8.2753300666809082E-2</v>
       </c>
       <c r="C79">
-        <v>0.23300000000000001</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D79">
-        <v>1.7498238086699758E-3</v>
+        <f>ABS(B79 - C79)</f>
+        <v>1.7533006668090795E-3</v>
       </c>
       <c r="E79">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F79">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G79">
-        <v>2.9709129999999999E-3</v>
+        <v>3.4522020000000001E-3</v>
       </c>
       <c r="H79">
-        <v>1.5888199999999999E-3</v>
+        <v>2.190474E-3</v>
       </c>
       <c r="I79">
-        <v>2.4117769999999999E-3</v>
+        <v>1.4998240000000001E-3</v>
       </c>
       <c r="J79">
-        <v>2.8346669999999999E-3</v>
+        <v>1.1205150000000001E-3</v>
       </c>
       <c r="K79">
-        <v>2.0726299999999998E-3</v>
+        <v>1.1137460000000001E-3</v>
       </c>
       <c r="L79">
-        <v>1.5938759999999999E-3</v>
+        <v>1.2967180000000001E-3</v>
       </c>
       <c r="M79">
-        <v>2.379206E-3</v>
+        <v>1.6435569999999999E-3</v>
       </c>
       <c r="N79">
-        <v>3.0511259999999999E-3</v>
+        <v>2.0105600000000002E-3</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80">
-        <v>0.86368107795715332</v>
+        <v>0.23474982380866999</v>
       </c>
       <c r="C80">
-        <v>0.876</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="D80">
-        <v>1.2318922042846681E-2</v>
+        <f>ABS(B80 - C80)</f>
+        <v>1.7498238086699758E-3</v>
       </c>
       <c r="E80">
         <v>3.3459710000000001E-3</v>
@@ -3957,42 +4017,43 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G80">
-        <v>1.569076E-3</v>
+        <v>2.9709129999999999E-3</v>
       </c>
       <c r="H80">
-        <v>1.6236040000000001E-3</v>
+        <v>1.5888199999999999E-3</v>
       </c>
       <c r="I80">
-        <v>1.9055980000000001E-3</v>
+        <v>2.4117769999999999E-3</v>
       </c>
       <c r="J80">
-        <v>2.388481E-3</v>
+        <v>2.8346669999999999E-3</v>
       </c>
       <c r="K80">
-        <v>2.9736599999999999E-3</v>
+        <v>2.0726299999999998E-3</v>
       </c>
       <c r="L80">
-        <v>3.2985829999999999E-3</v>
+        <v>1.5938759999999999E-3</v>
       </c>
       <c r="M80">
-        <v>3.2256849999999998E-3</v>
+        <v>2.379206E-3</v>
       </c>
       <c r="N80">
-        <v>2.7680389999999999E-3</v>
+        <v>3.0511259999999999E-3</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="B81">
-        <v>0.42652922868728638</v>
+        <v>0.89433419704437256</v>
       </c>
       <c r="C81">
-        <v>0.41399999999999998</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="D81">
-        <v>1.2529228687286398E-2</v>
+        <f>ABS(B81 - C81)</f>
+        <v>1.6658029556274601E-3</v>
       </c>
       <c r="E81">
         <v>3.3459710000000001E-3</v>
@@ -4001,130 +4062,133 @@
         <v>0</v>
       </c>
       <c r="G81">
-        <v>6.0752199999999999E-4</v>
+        <v>-9.7159900000000008E-6</v>
       </c>
       <c r="H81">
-        <v>1.143282E-3</v>
+        <v>1.4965400000000001E-5</v>
       </c>
       <c r="I81">
-        <v>5.4572799999999999E-4</v>
+        <v>1.8280299999999999E-4</v>
       </c>
       <c r="J81">
-        <v>5.1350199999999999E-4</v>
+        <v>4.9002900000000001E-4</v>
       </c>
       <c r="K81">
-        <v>1.3691840000000001E-3</v>
+        <v>9.6528599999999999E-4</v>
       </c>
       <c r="L81">
-        <v>3.4906999999999999E-6</v>
+        <v>1.3912709999999999E-3</v>
       </c>
       <c r="M81">
-        <v>1.4618999999999999E-3</v>
+        <v>1.664158E-3</v>
       </c>
       <c r="N81">
-        <v>3.1891200000000003E-4</v>
+        <v>1.6617750000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.29297071695327759</v>
+        <v>0.68853956460952759</v>
       </c>
       <c r="C82">
-        <v>0.28999999999999998</v>
+        <v>0.69</v>
       </c>
       <c r="D82">
-        <v>2.9707169532776079E-3</v>
+        <f>ABS(B82 - C82)</f>
+        <v>1.4604353904723588E-3</v>
       </c>
       <c r="E82">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F82">
-        <v>2.1409829999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>2.1372779999999998E-3</v>
+        <v>5.5627700000000003E-5</v>
       </c>
       <c r="H82">
-        <v>1.2575189999999999E-3</v>
+        <v>8.8510800000000001E-4</v>
       </c>
       <c r="I82">
-        <v>2.306368E-3</v>
+        <v>1.6819879999999999E-3</v>
       </c>
       <c r="J82">
-        <v>1.6546309999999999E-3</v>
+        <v>3.83397E-4</v>
       </c>
       <c r="K82">
-        <v>1.102408E-3</v>
+        <v>2.968E-4</v>
       </c>
       <c r="L82">
-        <v>2.2105620000000001E-3</v>
+        <v>1.4434370000000001E-3</v>
       </c>
       <c r="M82">
-        <v>2.286649E-3</v>
+        <v>6.5412999999999995E-4</v>
       </c>
       <c r="N82">
-        <v>1.140809E-3</v>
+        <v>9.7124800000000002E-5</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B83">
-        <v>0.48910665512084961</v>
+        <v>0.16386102139949801</v>
       </c>
       <c r="C83">
-        <v>0.48899999999999999</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="D83">
-        <v>1.0665512084961914E-4</v>
+        <f>ABS(B83 - C83)</f>
+        <v>1.1389786005019942E-3</v>
       </c>
       <c r="E83">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G83">
-        <v>3.7458400000000002E-4</v>
+        <v>2.8580929999999999E-3</v>
       </c>
       <c r="H83">
-        <v>1.4718699999999999E-3</v>
+        <v>1.209878E-3</v>
       </c>
       <c r="I83">
-        <v>1.8550300000000001E-5</v>
+        <v>1.1883099999999999E-3</v>
       </c>
       <c r="J83">
-        <v>1.4307530000000001E-3</v>
+        <v>1.866007E-3</v>
       </c>
       <c r="K83">
-        <v>5.1217900000000003E-5</v>
+        <v>2.3615939999999998E-3</v>
       </c>
       <c r="L83">
-        <v>1.392512E-3</v>
+        <v>2.1057419999999999E-3</v>
       </c>
       <c r="M83">
-        <v>4.8810000000000002E-5</v>
+        <v>1.440357E-3</v>
       </c>
       <c r="N83">
-        <v>1.34442E-3</v>
+        <v>1.087848E-3</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B84">
-        <v>8.2753300666809082E-2</v>
+        <v>0.20905385911464691</v>
       </c>
       <c r="C84">
-        <v>8.1000000000000003E-2</v>
+        <v>0.21</v>
       </c>
       <c r="D84">
-        <v>1.7533006668090795E-3</v>
+        <f>ABS(B84 - C84)</f>
+        <v>9.4614088535308061E-4</v>
       </c>
       <c r="E84">
         <v>3.3459710000000001E-3</v>
@@ -4133,86 +4197,88 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G84">
-        <v>3.4522020000000001E-3</v>
+        <v>2.5790409999999998E-3</v>
       </c>
       <c r="H84">
-        <v>2.190474E-3</v>
+        <v>1.0408539999999999E-3</v>
       </c>
       <c r="I84">
-        <v>1.4998240000000001E-3</v>
+        <v>1.617837E-3</v>
       </c>
       <c r="J84">
-        <v>1.1205150000000001E-3</v>
+        <v>2.3147630000000001E-3</v>
       </c>
       <c r="K84">
-        <v>1.1137460000000001E-3</v>
+        <v>1.9787479999999998E-3</v>
       </c>
       <c r="L84">
-        <v>1.2967180000000001E-3</v>
+        <v>1.167913E-3</v>
       </c>
       <c r="M84">
-        <v>1.6435569999999999E-3</v>
+        <v>1.2415379999999999E-3</v>
       </c>
       <c r="N84">
-        <v>2.0105600000000002E-3</v>
+        <v>2.1523459999999999E-3</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B85">
-        <v>0.54948115348815918</v>
+        <v>5.530942976474762E-2</v>
       </c>
       <c r="C85">
-        <v>0.56299999999999994</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="D85">
-        <v>1.3518846511840765E-2</v>
+        <f>ABS(B85 - C85)</f>
+        <v>6.9057023525238154E-4</v>
       </c>
       <c r="E85">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F85">
-        <v>2.1409829999999999E-3</v>
+        <v>3.3459710000000001E-3</v>
       </c>
       <c r="G85">
-        <v>1.262127E-3</v>
+        <v>4.1304820000000004E-3</v>
       </c>
       <c r="H85">
-        <v>2.5639759999999999E-3</v>
+        <v>3.1811719999999999E-3</v>
       </c>
       <c r="I85">
-        <v>1.434924E-3</v>
+        <v>2.5392909999999999E-3</v>
       </c>
       <c r="J85">
-        <v>1.9273319999999999E-3</v>
+        <v>2.0338019999999999E-3</v>
       </c>
       <c r="K85">
-        <v>1.957482E-3</v>
+        <v>1.748941E-3</v>
       </c>
       <c r="L85">
-        <v>1.383801E-3</v>
+        <v>1.5899169999999999E-3</v>
       </c>
       <c r="M85">
-        <v>2.418641E-3</v>
+        <v>1.599156E-3</v>
       </c>
       <c r="N85">
-        <v>1.085262E-3</v>
+        <v>1.740716E-3</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B86">
-        <v>0.67729514837265015</v>
+        <v>0.23257538676261899</v>
       </c>
       <c r="C86">
-        <v>0.69</v>
+        <v>0.23300000000000001</v>
       </c>
       <c r="D86">
-        <v>1.27048516273498E-2</v>
+        <f>ABS(B86 - C86)</f>
+        <v>4.2461323738102186E-4</v>
       </c>
       <c r="E86">
         <v>3.3459710000000001E-3</v>
@@ -4221,86 +4287,88 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G86">
-        <v>1.1306249999999999E-3</v>
+        <v>2.4318120000000002E-3</v>
       </c>
       <c r="H86">
-        <v>1.951508E-3</v>
+        <v>1.0592189999999999E-3</v>
       </c>
       <c r="I86">
-        <v>2.748178E-3</v>
+        <v>1.8789340000000001E-3</v>
       </c>
       <c r="J86">
-        <v>1.447844E-3</v>
+        <v>2.3000989999999999E-3</v>
       </c>
       <c r="K86">
-        <v>1.357434E-3</v>
+        <v>1.555706E-3</v>
       </c>
       <c r="L86">
-        <v>2.5125260000000002E-3</v>
+        <v>1.0765880000000001E-3</v>
       </c>
       <c r="M86">
-        <v>1.7253450000000001E-3</v>
+        <v>1.8633199999999999E-3</v>
       </c>
       <c r="N86">
-        <v>1.1597770000000001E-3</v>
+        <v>2.5443660000000002E-3</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="B87">
-        <v>0.68853956460952759</v>
+        <v>0.12040480226278311</v>
       </c>
       <c r="C87">
-        <v>0.69</v>
+        <v>0.12</v>
       </c>
       <c r="D87">
-        <v>1.4604353904723588E-3</v>
+        <f>ABS(B87 - C87)</f>
+        <v>4.0480226278311049E-4</v>
       </c>
       <c r="E87">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G87">
-        <v>5.5627700000000003E-5</v>
+        <v>3.1686079999999998E-3</v>
       </c>
       <c r="H87">
-        <v>8.8510800000000001E-4</v>
+        <v>1.6116290000000001E-3</v>
       </c>
       <c r="I87">
-        <v>1.6819879999999999E-3</v>
+        <v>1.081879E-3</v>
       </c>
       <c r="J87">
-        <v>3.83397E-4</v>
+        <v>1.1862520000000001E-3</v>
       </c>
       <c r="K87">
-        <v>2.968E-4</v>
+        <v>1.706452E-3</v>
       </c>
       <c r="L87">
-        <v>1.4434370000000001E-3</v>
+        <v>2.175434E-3</v>
       </c>
       <c r="M87">
-        <v>6.5412999999999995E-4</v>
+        <v>2.3519790000000001E-3</v>
       </c>
       <c r="N87">
-        <v>9.7124800000000002E-5</v>
+        <v>2.1408019999999998E-3</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="B88">
-        <v>0.20905385911464691</v>
+        <v>0.94572502374649048</v>
       </c>
       <c r="C88">
-        <v>0.21</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="D88">
-        <v>9.4614088535308061E-4</v>
+        <f>ABS(B88 - C88)</f>
+        <v>2.7497625350947352E-4</v>
       </c>
       <c r="E88">
         <v>3.3459710000000001E-3</v>
@@ -4309,130 +4377,133 @@
         <v>2.1409829999999999E-3</v>
       </c>
       <c r="G88">
-        <v>2.5790409999999998E-3</v>
+        <v>1.019531E-3</v>
       </c>
       <c r="H88">
-        <v>1.0408539999999999E-3</v>
+        <v>1.0197629999999999E-3</v>
       </c>
       <c r="I88">
-        <v>1.617837E-3</v>
+        <v>1.056193E-3</v>
       </c>
       <c r="J88">
-        <v>2.3147630000000001E-3</v>
+        <v>1.0878190000000001E-3</v>
       </c>
       <c r="K88">
-        <v>1.9787479999999998E-3</v>
+        <v>1.1977540000000001E-3</v>
       </c>
       <c r="L88">
-        <v>1.167913E-3</v>
+        <v>1.3124639999999999E-3</v>
       </c>
       <c r="M88">
-        <v>1.2415379999999999E-3</v>
+        <v>1.49512E-3</v>
       </c>
       <c r="N88">
-        <v>2.1523459999999999E-3</v>
+        <v>1.7304359999999999E-3</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B89">
-        <v>7.3472470045089722E-2</v>
+        <v>0.48910665512084961</v>
       </c>
       <c r="C89">
-        <v>8.1000000000000003E-2</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="D89">
-        <v>7.5275299549102809E-3</v>
+        <f>ABS(B89 - C89)</f>
+        <v>1.0665512084961914E-4</v>
       </c>
       <c r="E89">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F89">
-        <v>3.3459710000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>3.9732320000000002E-3</v>
+        <v>3.7458400000000002E-4</v>
       </c>
       <c r="H89">
-        <v>2.711003E-3</v>
+        <v>1.4718699999999999E-3</v>
       </c>
       <c r="I89">
-        <v>2.0064670000000001E-3</v>
+        <v>1.8550300000000001E-5</v>
       </c>
       <c r="J89">
-        <v>1.6129510000000001E-3</v>
+        <v>1.4307530000000001E-3</v>
       </c>
       <c r="K89">
-        <v>1.5968320000000001E-3</v>
+        <v>5.1217900000000003E-5</v>
       </c>
       <c r="L89">
-        <v>1.796434E-3</v>
+        <v>1.392512E-3</v>
       </c>
       <c r="M89">
-        <v>2.1186899999999999E-3</v>
+        <v>4.8810000000000002E-5</v>
       </c>
       <c r="N89">
-        <v>2.487249E-3</v>
+        <v>1.34442E-3</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="B90">
-        <v>0.18660511076450351</v>
+        <v>0.51590335369110107</v>
       </c>
       <c r="C90">
-        <v>0.17299999999999999</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="D90">
-        <v>1.360511076450352E-2</v>
+        <f>ABS(B90 - C90)</f>
+        <v>9.6646308898939992E-5</v>
       </c>
       <c r="E90">
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="F90">
-        <v>3.3459710000000001E-3</v>
+        <v>2.1409829999999999E-3</v>
       </c>
       <c r="G90">
-        <v>3.3140079999999998E-3</v>
+        <v>1.3777380000000001E-3</v>
       </c>
       <c r="H90">
-        <v>1.6711880000000001E-3</v>
+        <v>2.6007690000000002E-3</v>
       </c>
       <c r="I90">
-        <v>1.7687390000000001E-3</v>
+        <v>1.094072E-3</v>
       </c>
       <c r="J90">
-        <v>2.4913130000000002E-3</v>
+        <v>2.500679E-3</v>
       </c>
       <c r="K90">
-        <v>2.873156E-3</v>
+        <v>1.1437400000000001E-3</v>
       </c>
       <c r="L90">
-        <v>2.4500250000000002E-3</v>
+        <v>2.4495820000000001E-3</v>
       </c>
       <c r="M90">
-        <v>1.764222E-3</v>
+        <v>1.209159E-3</v>
       </c>
       <c r="N90">
-        <v>1.62728E-3</v>
+        <v>2.3690209999999998E-3</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="B91">
-        <v>0.17582142353057861</v>
+        <v>0.25493916869163508</v>
       </c>
       <c r="C91">
-        <v>0.16500000000000001</v>
+        <v>0.255</v>
       </c>
       <c r="D91">
-        <v>1.0821423530578606E-2</v>
+        <f>ABS(B91 - C91)</f>
+        <v>6.0831308364928116E-5</v>
       </c>
       <c r="E91">
         <v>3.3459710000000001E-3</v>
@@ -4441,31 +4512,34 @@
         <v>3.3459710000000001E-3</v>
       </c>
       <c r="G91">
-        <v>3.3659879999999999E-3</v>
+        <v>2.8423860000000001E-3</v>
       </c>
       <c r="H91">
-        <v>1.725793E-3</v>
+        <v>1.636719E-3</v>
       </c>
       <c r="I91">
-        <v>1.7103559999999999E-3</v>
+        <v>2.6113479999999999E-3</v>
       </c>
       <c r="J91">
-        <v>2.3761820000000001E-3</v>
+        <v>2.6560860000000002E-3</v>
       </c>
       <c r="K91">
-        <v>2.8627800000000001E-3</v>
+        <v>1.7215279999999999E-3</v>
       </c>
       <c r="L91">
-        <v>2.6020169999999999E-3</v>
+        <v>1.847359E-3</v>
       </c>
       <c r="M91">
-        <v>1.9299440000000001E-3</v>
+        <v>2.854119E-3</v>
       </c>
       <c r="N91">
-        <v>1.5933399999999999E-3</v>
+        <v>2.6503630000000002E-3</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N91">
+    <sortCondition descending="1" ref="D1:D91"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>